--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\OneDrive\Documents\SasinGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE81688F-88EA-45C7-BBA3-2CAD54D9528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C1C101-EEBF-4EA3-AE70-0579AC467922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2550" windowWidth="26655" windowHeight="12495" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="495" yWindow="2775" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,21 @@
   <si>
     <t>등급별확률</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GachaLv6</t>
+  </si>
+  <si>
+    <t>GachaLv7</t>
+  </si>
+  <si>
+    <t>GachaLv8</t>
+  </si>
+  <si>
+    <t>GachaLv9</t>
+  </si>
+  <si>
+    <t>GachaLv10</t>
   </si>
 </sst>
 </file>
@@ -654,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,7 +685,7 @@
     <col min="8" max="8" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -713,8 +728,23 @@
       <c r="N1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -746,7 +776,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="K2">
-        <v>0.20800000000000002</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="L2">
         <v>0.17</v>
@@ -757,8 +787,23 @@
       <c r="N2">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O2">
+        <v>0.124</v>
+      </c>
+      <c r="P2">
+        <v>0.124</v>
+      </c>
+      <c r="Q2">
+        <v>0.124</v>
+      </c>
+      <c r="R2">
+        <v>0.124</v>
+      </c>
+      <c r="S2">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -801,8 +846,23 @@
       <c r="N3">
         <v>9.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="P3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="Q3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="R3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="S3">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -845,8 +905,23 @@
       <c r="N4">
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="P4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="Q4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="R4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="S4">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -889,8 +964,23 @@
       <c r="N5">
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="P5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="Q5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="R5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S5">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -933,8 +1023,23 @@
       <c r="N6">
         <v>0.2656</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>0.2656</v>
+      </c>
+      <c r="P6">
+        <v>0.2656</v>
+      </c>
+      <c r="Q6">
+        <v>0.2656</v>
+      </c>
+      <c r="R6">
+        <v>0.2656</v>
+      </c>
+      <c r="S6">
+        <v>0.2656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -977,8 +1082,23 @@
       <c r="N7">
         <v>0.19920000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>0.19920000000000002</v>
+      </c>
+      <c r="P7">
+        <v>0.19920000000000002</v>
+      </c>
+      <c r="Q7">
+        <v>0.19920000000000002</v>
+      </c>
+      <c r="R7">
+        <v>0.19920000000000002</v>
+      </c>
+      <c r="S7">
+        <v>0.19920000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1021,8 +1141,23 @@
       <c r="N8">
         <v>0.1328</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>0.1328</v>
+      </c>
+      <c r="P8">
+        <v>0.1328</v>
+      </c>
+      <c r="Q8">
+        <v>0.1328</v>
+      </c>
+      <c r="R8">
+        <v>0.1328</v>
+      </c>
+      <c r="S8">
+        <v>0.1328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1065,8 +1200,23 @@
       <c r="N9">
         <v>6.6400000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="P9">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="Q9">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="R9">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="S9">
+        <v>6.6400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1109,8 +1259,23 @@
       <c r="N10">
         <v>1.0000000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="P10">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="Q10">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="R10">
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="S10">
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1153,8 +1318,23 @@
       <c r="N11">
         <v>7.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="P11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="Q11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="R11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="S11">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1197,8 +1377,23 @@
       <c r="N12">
         <v>5.000000000000001E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="P12">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="Q12">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="R12">
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="S12">
+        <v>5.000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1241,8 +1436,23 @@
       <c r="N13">
         <v>2.5000000000000005E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="P13">
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="Q13">
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="R13">
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="S13">
+        <v>2.5000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1285,8 +1495,23 @@
       <c r="N14">
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="Q14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="R14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="S14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1329,8 +1554,23 @@
       <c r="N15">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="Q15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="R15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="S15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1373,8 +1613,23 @@
       <c r="N16">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Q16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="S16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1417,8 +1672,23 @@
       <c r="N17">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17">
+        <v>1E-4</v>
+      </c>
+      <c r="P17">
+        <v>1E-4</v>
+      </c>
+      <c r="Q17">
+        <v>1E-4</v>
+      </c>
+      <c r="R17">
+        <v>1E-4</v>
+      </c>
+      <c r="S17">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1459,6 +1729,21 @@
         <v>0</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C1C101-EEBF-4EA3-AE70-0579AC467922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D6A195-B500-49B1-B893-C5E92D17A4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2775" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="495" yWindow="2775" windowWidth="37665" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,52 @@
   </si>
   <si>
     <t>GachaLv10</t>
+  </si>
+  <si>
+    <t>중급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급3</t>
+  </si>
+  <si>
+    <t>중급4</t>
+  </si>
+  <si>
+    <t>상급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급3</t>
+  </si>
+  <si>
+    <t>상급4</t>
+  </si>
+  <si>
+    <t>특급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급3</t>
+  </si>
+  <si>
+    <t>특급4</t>
   </si>
 </sst>
 </file>
@@ -672,7 +718,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -988,7 +1034,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1047,7 +1093,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1106,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1165,7 +1211,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1224,7 +1270,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1283,7 +1329,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1342,7 +1388,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1401,7 +1447,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1460,7 +1506,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1519,7 +1565,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1578,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1637,7 +1683,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1696,7 +1742,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D18">
         <v>4</v>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C1C101-EEBF-4EA3-AE70-0579AC467922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FA102-CD57-4942-9E3B-E24B26037450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2775" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
     <sheet name="Prob" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,21 +672,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +746,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -776,7 +778,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="K2">
-        <v>0.20799999999999999</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="L2">
         <v>0.17</v>
@@ -788,22 +790,22 @@
         <v>0.124</v>
       </c>
       <c r="O2">
-        <v>0.124</v>
+        <v>0.10720000000000002</v>
       </c>
       <c r="P2">
-        <v>0.124</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="Q2">
-        <v>0.124</v>
+        <v>5.7999999999999996E-2</v>
       </c>
       <c r="R2">
-        <v>0.124</v>
+        <v>3.32E-2</v>
       </c>
       <c r="S2">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -847,22 +849,22 @@
         <v>9.2999999999999999E-2</v>
       </c>
       <c r="O3">
-        <v>9.2999999999999999E-2</v>
+        <v>8.0399999999999999E-2</v>
       </c>
       <c r="P3">
-        <v>9.2999999999999999E-2</v>
+        <v>6.2099999999999995E-2</v>
       </c>
       <c r="Q3">
-        <v>9.2999999999999999E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="R3">
-        <v>9.2999999999999999E-2</v>
+        <v>2.4900000000000002E-2</v>
       </c>
       <c r="S3">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -906,22 +908,22 @@
         <v>6.2E-2</v>
       </c>
       <c r="O4">
-        <v>6.2E-2</v>
+        <v>5.3600000000000009E-2</v>
       </c>
       <c r="P4">
-        <v>6.2E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="Q4">
-        <v>6.2E-2</v>
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="R4">
-        <v>6.2E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="S4">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -965,22 +967,22 @@
         <v>3.1E-2</v>
       </c>
       <c r="O5">
-        <v>3.1E-2</v>
+        <v>2.6800000000000004E-2</v>
       </c>
       <c r="P5">
-        <v>3.1E-2</v>
+        <v>2.07E-2</v>
       </c>
       <c r="Q5">
-        <v>3.1E-2</v>
+        <v>1.4499999999999999E-2</v>
       </c>
       <c r="R5">
-        <v>3.1E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="S5">
-        <v>3.1E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1024,22 +1026,22 @@
         <v>0.2656</v>
       </c>
       <c r="O6">
-        <v>0.2656</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="P6">
-        <v>0.2656</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="Q6">
-        <v>0.2656</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="R6">
-        <v>0.2656</v>
+        <v>0.34</v>
       </c>
       <c r="S6">
-        <v>0.2656</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.36400000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1083,22 +1085,22 @@
         <v>0.19920000000000002</v>
       </c>
       <c r="O7">
-        <v>0.19920000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="P7">
-        <v>0.19920000000000002</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="Q7">
-        <v>0.19920000000000002</v>
+        <v>0.24</v>
       </c>
       <c r="R7">
-        <v>0.19920000000000002</v>
+        <v>0.255</v>
       </c>
       <c r="S7">
-        <v>0.19920000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1142,22 +1144,22 @@
         <v>0.1328</v>
       </c>
       <c r="O8">
-        <v>0.1328</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="P8">
-        <v>0.1328</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.1328</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="R8">
-        <v>0.1328</v>
+        <v>0.17</v>
       </c>
       <c r="S8">
-        <v>0.1328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0.18200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1201,22 +1203,22 @@
         <v>6.6400000000000001E-2</v>
       </c>
       <c r="O9">
-        <v>6.6400000000000001E-2</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="P9">
-        <v>6.6400000000000001E-2</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="Q9">
-        <v>6.6400000000000001E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="R9">
-        <v>6.6400000000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="S9">
-        <v>6.6400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+        <v>9.1000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1260,22 +1262,22 @@
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="O10">
-        <v>1.0000000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="P10">
-        <v>1.0000000000000002E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="Q10">
-        <v>1.0000000000000002E-2</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="R10">
-        <v>1.0000000000000002E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="S10">
-        <v>1.0000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1319,22 +1321,22 @@
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="O11">
-        <v>7.4999999999999997E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="P11">
-        <v>7.4999999999999997E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="Q11">
-        <v>7.4999999999999997E-3</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R11">
-        <v>7.4999999999999997E-3</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="S11">
-        <v>7.4999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1378,22 +1380,22 @@
         <v>5.000000000000001E-3</v>
       </c>
       <c r="O12">
-        <v>5.000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="P12">
-        <v>5.000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q12">
-        <v>5.000000000000001E-3</v>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="R12">
-        <v>5.000000000000001E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="S12">
-        <v>5.000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1437,22 +1439,22 @@
         <v>2.5000000000000005E-3</v>
       </c>
       <c r="O13">
-        <v>2.5000000000000005E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="P13">
-        <v>2.5000000000000005E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="Q13">
-        <v>2.5000000000000005E-3</v>
+        <v>5.000000000000001E-3</v>
       </c>
       <c r="R13">
-        <v>2.5000000000000005E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="S13">
-        <v>2.5000000000000005E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1496,22 +1498,22 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="O14">
-        <v>4.0000000000000002E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="P14">
-        <v>4.0000000000000002E-4</v>
+        <v>1.2000000000000001E-3</v>
       </c>
       <c r="Q14">
-        <v>4.0000000000000002E-4</v>
+        <v>2E-3</v>
       </c>
       <c r="R14">
-        <v>4.0000000000000002E-4</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="S14">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1555,22 +1557,22 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="O15">
-        <v>2.9999999999999997E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="P15">
-        <v>2.9999999999999997E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="Q15">
-        <v>2.9999999999999997E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="R15">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="S15">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1614,22 +1616,22 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="O16">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P16">
-        <v>2.0000000000000001E-4</v>
+        <v>6.0000000000000006E-4</v>
       </c>
       <c r="Q16">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="R16">
-        <v>2.0000000000000001E-4</v>
+        <v>1.4000000000000002E-3</v>
       </c>
       <c r="S16">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1673,22 +1675,22 @@
         <v>1E-4</v>
       </c>
       <c r="O17">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P17">
-        <v>1E-4</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="Q17">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="R17">
-        <v>1E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="S17">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1756,19 +1758,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DDB2AE-5599-4543-81C7-777464B5EF86}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J17"/>
+    <sheetView topLeftCell="G1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="10" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="14" max="14" width="19.25" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1796,8 +1803,23 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1811,27 +1833,47 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <f>F21*$F$29</f>
+        <f t="shared" ref="F2:O2" si="0">F21*$F$29</f>
         <v>0.26200000000000001</v>
       </c>
       <c r="G2" s="3">
-        <f>G21*$F$29</f>
+        <f t="shared" si="0"/>
         <v>0.20800000000000002</v>
       </c>
       <c r="H2" s="3">
-        <f>H21*$F$29</f>
+        <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
       <c r="I2" s="3">
-        <f>I21*$F$29</f>
+        <f t="shared" si="0"/>
         <v>0.14399999999999999</v>
       </c>
       <c r="J2" s="3">
-        <f>J21*$F$29</f>
+        <f t="shared" si="0"/>
         <v>0.124</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10720000000000002</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" si="0"/>
+        <v>3.32E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1845,27 +1887,47 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <f>F21*$F$30</f>
+        <f t="shared" ref="F3:O3" si="1">F21*$F$30</f>
         <v>0.19650000000000001</v>
       </c>
       <c r="G3" s="3">
-        <f>G21*$F$30</f>
+        <f t="shared" si="1"/>
         <v>0.156</v>
       </c>
       <c r="H3" s="3">
-        <f>H21*$F$30</f>
+        <f t="shared" si="1"/>
         <v>0.1275</v>
       </c>
       <c r="I3" s="3">
-        <f>I21*$F$30</f>
+        <f t="shared" si="1"/>
         <v>0.108</v>
       </c>
       <c r="J3" s="3">
-        <f>J21*$F$30</f>
+        <f t="shared" si="1"/>
         <v>9.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2099999999999995E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="1"/>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4900000000000002E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1879,27 +1941,47 @@
         <v>0</v>
       </c>
       <c r="F4" s="3">
-        <f>F21*$F$31</f>
+        <f t="shared" ref="F4:O4" si="2">F21*$F$31</f>
         <v>0.13100000000000001</v>
       </c>
       <c r="G4" s="3">
-        <f>G21*$F$31</f>
+        <f t="shared" si="2"/>
         <v>0.10400000000000001</v>
       </c>
       <c r="H4" s="3">
-        <f>H21*$F$31</f>
+        <f t="shared" si="2"/>
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="I4" s="3">
-        <f>I21*$F$31</f>
+        <f t="shared" si="2"/>
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="J4" s="3">
-        <f>J21*$F$31</f>
+        <f t="shared" si="2"/>
         <v>6.2E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="3">
+        <f>K21*$F$31</f>
+        <v>5.3600000000000009E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="2"/>
+        <v>1.66E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1913,27 +1995,47 @@
         <v>0</v>
       </c>
       <c r="F5" s="3">
-        <f>F21*$F$32</f>
+        <f t="shared" ref="F5:O5" si="3">F21*$F$32</f>
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="G5" s="3">
-        <f>G21*$F$32</f>
+        <f t="shared" si="3"/>
         <v>5.2000000000000005E-2</v>
       </c>
       <c r="H5" s="3">
-        <f>H21*$F$32</f>
+        <f t="shared" si="3"/>
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="I5" s="3">
-        <f>I21*$F$32</f>
+        <f t="shared" si="3"/>
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="J5" s="3">
-        <f>J21*$F$32</f>
+        <f t="shared" si="3"/>
         <v>3.1E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="3">
+        <f>K21*$F$32</f>
+        <v>2.6800000000000004E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>2.07E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4499999999999999E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="3"/>
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1947,27 +2049,47 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <f>F22*$F$29</f>
+        <f t="shared" ref="F6:O6" si="4">F22*$F$29</f>
         <v>0.13600000000000001</v>
       </c>
       <c r="G6" s="2">
-        <f>G22*$F$29</f>
+        <f t="shared" si="4"/>
         <v>0.18792</v>
       </c>
       <c r="H6" s="2">
-        <f>H22*$F$29</f>
+        <f t="shared" si="4"/>
         <v>0.22384000000000001</v>
       </c>
       <c r="I6" s="2">
-        <f>I22*$F$29</f>
+        <f t="shared" si="4"/>
         <v>0.24775999999999998</v>
       </c>
       <c r="J6" s="2">
-        <f>J22*$F$29</f>
+        <f t="shared" si="4"/>
         <v>0.2656</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.34</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.36400000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1981,27 +2103,47 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <f>F22*$F$30</f>
+        <f t="shared" ref="F7:O7" si="5">F22*$F$30</f>
         <v>0.10200000000000001</v>
       </c>
       <c r="G7" s="2">
-        <f>G22*$F$30</f>
+        <f t="shared" si="5"/>
         <v>0.14093999999999998</v>
       </c>
       <c r="H7" s="2">
-        <f>H22*$F$30</f>
+        <f t="shared" si="5"/>
         <v>0.16788</v>
       </c>
       <c r="I7" s="2">
-        <f>I22*$F$30</f>
+        <f t="shared" si="5"/>
         <v>0.18581999999999999</v>
       </c>
       <c r="J7" s="2">
-        <f>J22*$F$30</f>
+        <f t="shared" si="5"/>
         <v>0.19920000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.24</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.255</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2015,27 +2157,47 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <f>F22*$F$31</f>
+        <f t="shared" ref="F8:O8" si="6">F22*$F$31</f>
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="G8" s="2">
-        <f>G22*$F$31</f>
+        <f t="shared" si="6"/>
         <v>9.3960000000000002E-2</v>
       </c>
       <c r="H8" s="2">
-        <f>H22*$F$31</f>
+        <f t="shared" si="6"/>
         <v>0.11192000000000001</v>
       </c>
       <c r="I8" s="2">
-        <f>I22*$F$31</f>
+        <f t="shared" si="6"/>
         <v>0.12387999999999999</v>
       </c>
       <c r="J8" s="2">
-        <f>J22*$F$31</f>
+        <f t="shared" si="6"/>
         <v>0.1328</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.17</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2049,27 +2211,47 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <f>F22*$F$32</f>
+        <f t="shared" ref="F9:O9" si="7">F22*$F$32</f>
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="G9" s="2">
-        <f>G22*$F$32</f>
+        <f t="shared" si="7"/>
         <v>4.6980000000000001E-2</v>
       </c>
       <c r="H9" s="2">
-        <f>H22*$F$32</f>
+        <f t="shared" si="7"/>
         <v>5.5960000000000003E-2</v>
       </c>
       <c r="I9" s="2">
-        <f>I22*$F$32</f>
+        <f t="shared" si="7"/>
         <v>6.1939999999999995E-2</v>
       </c>
       <c r="J9" s="2">
-        <f>J22*$F$32</f>
+        <f t="shared" si="7"/>
         <v>6.6400000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="7"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="7"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="7"/>
+        <v>9.1000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2083,27 +2265,47 @@
         <v>2</v>
       </c>
       <c r="F10" s="3">
-        <f>F23*$F$29</f>
+        <f t="shared" ref="F10:O10" si="8">F23*$F$29</f>
         <v>2E-3</v>
       </c>
       <c r="G10" s="3">
-        <f>G23*$F$29</f>
+        <f t="shared" si="8"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H10" s="3">
-        <f>H23*$F$29</f>
+        <f t="shared" si="8"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="I10" s="3">
-        <f>I23*$F$29</f>
+        <f t="shared" si="8"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="J10" s="3">
-        <f>J23*$F$29</f>
+        <f t="shared" si="8"/>
         <v>1.0000000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="3">
+        <f t="shared" si="8"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="8"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="8"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="8"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2117,27 +2319,47 @@
         <v>2</v>
       </c>
       <c r="F11" s="3">
-        <f>F23*$F$30</f>
+        <f t="shared" ref="F11:O11" si="9">F23*$F$30</f>
         <v>1.5E-3</v>
       </c>
       <c r="G11" s="3">
-        <f>G23*$F$30</f>
+        <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="H11" s="3">
-        <f>H23*$F$30</f>
+        <f t="shared" si="9"/>
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="I11" s="3">
-        <f>I23*$F$30</f>
+        <f t="shared" si="9"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="J11" s="3">
-        <f>J23*$F$30</f>
+        <f t="shared" si="9"/>
         <v>7.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K11" s="3">
+        <f t="shared" si="9"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="9"/>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2151,27 +2373,47 @@
         <v>2</v>
       </c>
       <c r="F12" s="3">
-        <f>F23*$F$31</f>
+        <f t="shared" ref="F12:O12" si="10">F23*$F$31</f>
         <v>1E-3</v>
       </c>
       <c r="G12" s="3">
-        <f>G23*$F$31</f>
+        <f t="shared" si="10"/>
         <v>2E-3</v>
       </c>
       <c r="H12" s="3">
-        <f>H23*$F$31</f>
+        <f t="shared" si="10"/>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I12" s="3">
-        <f>I23*$F$31</f>
+        <f t="shared" si="10"/>
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J12" s="3">
-        <f>J23*$F$31</f>
+        <f t="shared" si="10"/>
         <v>5.000000000000001E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="3">
+        <f t="shared" si="10"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2185,27 +2427,47 @@
         <v>2</v>
       </c>
       <c r="F13" s="3">
-        <f>F23*$F$32</f>
+        <f t="shared" ref="F13:O13" si="11">F23*$F$32</f>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G13" s="3">
-        <f>G23*$F$32</f>
+        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
       <c r="H13" s="3">
-        <f>H23*$F$32</f>
+        <f t="shared" si="11"/>
         <v>1.5E-3</v>
       </c>
       <c r="I13" s="3">
-        <f>I23*$F$32</f>
+        <f t="shared" si="11"/>
         <v>2E-3</v>
       </c>
       <c r="J13" s="3">
-        <f>J23*$F$32</f>
+        <f t="shared" si="11"/>
         <v>2.5000000000000005E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <f t="shared" si="11"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="11"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="11"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="11"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2219,27 +2481,47 @@
         <v>3</v>
       </c>
       <c r="F14" s="2">
-        <f>F24*$F$29</f>
+        <f t="shared" ref="F14:O14" si="12">F24*$F$29</f>
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <f>G24*$F$29</f>
+        <f t="shared" si="12"/>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="H14" s="2">
-        <f>H24*$F$29</f>
+        <f t="shared" si="12"/>
         <v>1.6000000000000001E-4</v>
       </c>
       <c r="I14" s="2">
-        <f>I24*$F$29</f>
+        <f t="shared" si="12"/>
         <v>2.3999999999999998E-4</v>
       </c>
       <c r="J14" s="2">
         <f>J24*$F$29</f>
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="2">
+        <f>K24*$F$29</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="L14" s="2">
+        <f>L24*$F$29</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="12"/>
+        <v>2E-3</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="12"/>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2253,11 +2535,11 @@
         <v>3</v>
       </c>
       <c r="F15" s="2">
-        <f>F24*$F$30</f>
+        <f t="shared" ref="F15:O15" si="13">F24*$F$30</f>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f>G24*$F$30</f>
+        <f t="shared" si="13"/>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="H15" s="2">
@@ -2265,15 +2547,35 @@
         <v>1.2E-4</v>
       </c>
       <c r="I15" s="2">
-        <f>I24*$F$30</f>
+        <f t="shared" si="13"/>
         <v>1.7999999999999998E-4</v>
       </c>
       <c r="J15" s="2">
         <f>J24*$F$30</f>
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="2">
+        <f>K24*$F$30</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="L15" s="2">
+        <f>L24*$F$30</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="13"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2306,8 +2608,28 @@
         <f>J24*F31</f>
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="2">
+        <f>K24*$F$31</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="L16" s="2">
+        <f>L24*$F$31</f>
+        <v>6.0000000000000006E-4</v>
+      </c>
+      <c r="M16" s="2">
+        <f>M24*$F$31</f>
+        <v>1E-3</v>
+      </c>
+      <c r="N16" s="2">
+        <f>N24*$F$31</f>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="O16" s="2">
+        <f>O24*$F$31</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2337,11 +2659,31 @@
         <v>5.9999999999999995E-5</v>
       </c>
       <c r="J17" s="2">
-        <f>J24*F32</f>
+        <f t="shared" ref="J17:O17" si="14">J24*F32</f>
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K17" s="2">
+        <f>K24*$F$32</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L17" s="2">
+        <f>L24*$F$32</f>
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="M17" s="2">
+        <f>M24*$F$32</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N17" s="2">
+        <f>N24*$F$32</f>
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="O17" s="2">
+        <f>O24*$F$32</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2359,14 +2701,19 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="F19" s="2">
-        <f>SUM(F2:F18)</f>
+        <f t="shared" ref="F19:O19" si="15">SUM(F2:F18)</f>
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <f>SUM(G2:G18)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="H19" s="2">
@@ -2374,15 +2721,42 @@
         <v>1</v>
       </c>
       <c r="I19" s="2">
-        <f>SUM(I2:I18)</f>
+        <f t="shared" si="15"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="J19" s="2">
         <f>SUM(J2:J18)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="2">
+        <f>SUM(K2:K18)</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <f>SUM(L2:L18)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="M19" s="2">
+        <f>SUM(M2:M18)</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <f>SUM(N2:N18)</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -2401,8 +2775,23 @@
       <c r="J21" s="2">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N21" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2421,8 +2810,23 @@
       <c r="J22" s="2">
         <v>0.66400000000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2441,8 +2845,23 @@
       <c r="J23" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
@@ -2461,43 +2880,83 @@
       <c r="J24" s="2">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L24" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N24" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F26" s="2">
-        <f>SUM(F21:F24)</f>
+        <f t="shared" ref="F26:O26" si="16">SUM(F21:F24)</f>
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <f>SUM(G21:G24)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="H26" s="2">
-        <f>SUM(H21:H24)</f>
+        <f t="shared" si="16"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="I26" s="2">
-        <f>SUM(I21:I24)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J26" s="2">
-        <f>SUM(J21:J24)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <f>SUM(K21:K24)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E29" s="1">
         <v>4</v>
       </c>
@@ -2512,7 +2971,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E30" s="1">
         <v>3</v>
       </c>
@@ -2527,7 +2986,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -2542,7 +3001,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -2557,7 +3016,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F33" s="2">
         <f>SUM(F29:F32)</f>
         <v>0.99999999999999989</v>
@@ -2575,4 +3034,1331 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D4B6AA-F00E-4050-9C5D-AD132116734E}">
+  <dimension ref="A1:O33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:O2" si="0">F21*$F$29</f>
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.124</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>0.10720000000000002</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" si="0"/>
+        <v>5.7999999999999996E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" si="0"/>
+        <v>3.32E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:O3" si="1">F21*$F$30</f>
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.156</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1275</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="1"/>
+        <v>0.108</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="1"/>
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2099999999999995E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" si="1"/>
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="1"/>
+        <v>2.4900000000000002E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4:O4" si="2">F21*$F$31</f>
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.10400000000000001</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="2"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="2"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <f>K21*$F$31</f>
+        <v>5.3600000000000009E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="2"/>
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8999999999999998E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="2"/>
+        <v>1.66E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3">
+        <f t="shared" ref="F5:O5" si="3">F21*$F$32</f>
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <f>K21*$F$32</f>
+        <v>2.6800000000000004E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>2.07E-2</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>1.4499999999999999E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="3"/>
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6:O6" si="4">F22*$F$29</f>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.18792</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.22384000000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.24775999999999998</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.2656</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.32000000000000006</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.34</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.36400000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:O7" si="5">F22*$F$30</f>
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.14093999999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.16788</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.18581999999999999</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.19920000000000002</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.21</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.24</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.255</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="5"/>
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2">
+        <f t="shared" ref="F8:O8" si="6">F22*$F$31</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="6"/>
+        <v>9.3960000000000002E-2</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.11192000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.12387999999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.1328</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.17</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18200000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:O9" si="7">F22*$F$32</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="7"/>
+        <v>4.6980000000000001E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="7"/>
+        <v>5.5960000000000003E-2</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="7"/>
+        <v>6.1939999999999995E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="7"/>
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="7"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="7"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="7"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="7"/>
+        <v>9.1000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:O10" si="8">F23*$F$29</f>
+        <v>2E-3</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="8"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="8"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="8"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="8"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="8"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="M10" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="8"/>
+        <v>2.4E-2</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="8"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="3">
+        <f t="shared" ref="F11:O11" si="9">F23*$F$30</f>
+        <v>1.5E-3</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="9"/>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="9"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="9"/>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="9"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="M11" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="9"/>
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="3">
+        <f t="shared" ref="F12:O12" si="10">F23*$F$31</f>
+        <v>1E-3</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="10"/>
+        <v>2E-3</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="10"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="10"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="10"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="10"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3">
+        <f t="shared" ref="F13:O13" si="11">F23*$F$32</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="11"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="11"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="11"/>
+        <v>2E-3</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="11"/>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="11"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="11"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="11"/>
+        <v>5.000000000000001E-3</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="11"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="11"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:O14" si="12">F24*$F$29</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="12"/>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="12"/>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="12"/>
+        <v>2.3999999999999998E-4</v>
+      </c>
+      <c r="J14" s="2">
+        <f>J24*$F$29</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K14" s="2">
+        <f>K24*$F$29</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="L14" s="2">
+        <f>L24*$F$29</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="12"/>
+        <v>2E-3</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="12"/>
+        <v>2.8000000000000004E-3</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="12"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15:O15" si="13">F24*$F$30</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="13"/>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="H15" s="2">
+        <f>H24*$F$30</f>
+        <v>1.2E-4</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="13"/>
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="J15" s="2">
+        <f>J24*$F$30</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K15" s="2">
+        <f>K24*$F$30</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="L15" s="2">
+        <f>L24*$F$30</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="13"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="13"/>
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="13"/>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2">
+        <f>F24*$F$31</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f>G24*$F$31</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="H16" s="2">
+        <f>H24*$F$31</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="I16" s="2">
+        <f>I24*$F$31</f>
+        <v>1.1999999999999999E-4</v>
+      </c>
+      <c r="J16" s="2">
+        <f>J24*F31</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K16" s="2">
+        <f>K24*G31</f>
+        <v>4.0000000000000003E-7</v>
+      </c>
+      <c r="L16" s="2">
+        <f>L24*H31</f>
+        <v>6.0000000000000008E-7</v>
+      </c>
+      <c r="M16" s="2">
+        <f t="shared" ref="M16:O16" si="14">M24*I31</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
+        <f>F24*$F$32</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f>G24*$F$32</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H17" s="2">
+        <f>H24*$F$32</f>
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="I17" s="2">
+        <f>I24*$F$32</f>
+        <v>5.9999999999999995E-5</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ref="J17:O17" si="15">J24*F32</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K17" s="2">
+        <f>K24*G32</f>
+        <v>2.0000000000000002E-7</v>
+      </c>
+      <c r="L17" s="2">
+        <f>L24*H32</f>
+        <v>3.0000000000000004E-7</v>
+      </c>
+      <c r="M17" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:O19" si="16">SUM(F2:F18)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <f>SUM(H2:H18)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="16"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J19" s="2">
+        <f>SUM(J2:J18)</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <f>SUM(K2:K18)</f>
+        <v>0.99940060000000008</v>
+      </c>
+      <c r="L19" s="2">
+        <f>SUM(L2:L18)</f>
+        <v>0.99910090000000007</v>
+      </c>
+      <c r="M19" s="2">
+        <f>SUM(M2:M18)</f>
+        <v>0.99850000000000005</v>
+      </c>
+      <c r="N19" s="2">
+        <f>SUM(N2:N18)</f>
+        <v>0.99790000000000012</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="16"/>
+        <v>0.99700000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N21" s="2">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.4698</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.61939999999999995</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I24" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="L24" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N24" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" ref="F26:O26" si="17">SUM(F21:F24)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="17"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <f>SUM(K21:K24)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="17"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G29" s="2">
+        <f>F29*$G$33</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="H29" s="4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="G30" s="2">
+        <f>F30*$G$33</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="2">
+        <f>F31*$G$33</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="2">
+        <f>F32*$G$33</f>
+        <v>1E-4</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E33" s="1"/>
+      <c r="F33" s="2">
+        <f>SUM(F29:F32)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="H33" s="4">
+        <f>SUM(H29:H32)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6FA102-CD57-4942-9E3B-E24B26037450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8D4195-B66F-4575-9C4D-2E6706FC3FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,15 +254,62 @@
   </si>
   <si>
     <t>GachaLv10</t>
+  </si>
+  <si>
+    <t>중급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급3</t>
+  </si>
+  <si>
+    <t>중급4</t>
+  </si>
+  <si>
+    <t>상급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급3</t>
+  </si>
+  <si>
+    <t>상급4</t>
+  </si>
+  <si>
+    <t>특급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급3</t>
+  </si>
+  <si>
+    <t>특급4</t>
+  </si>
+  <si>
+    <t>전설1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000000000%"/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -335,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,6 +399,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -672,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -684,7 +734,12 @@
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="16.08203125" customWidth="1"/>
     <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.58203125" customWidth="1"/>
+    <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.08203125" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
@@ -774,34 +829,34 @@
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>0.26200000000000001</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>0.20800000000000002</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>0.17</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="6">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="6">
         <v>0.124</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="6">
         <v>0.10720000000000002</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="6">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="6">
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="6">
         <v>3.32E-2</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="6">
         <v>0</v>
       </c>
     </row>
@@ -833,34 +888,34 @@
       <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>0.19650000000000001</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>0.156</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>0.1275</v>
       </c>
-      <c r="M3">
-        <v>0.108</v>
-      </c>
-      <c r="N3">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="O3">
-        <v>8.0399999999999999E-2</v>
-      </c>
-      <c r="P3">
-        <v>6.2099999999999995E-2</v>
-      </c>
-      <c r="Q3">
+      <c r="M3" s="6">
+        <v>0.10800000000000001</v>
+      </c>
+      <c r="N3" s="6">
+        <v>9.3000000000000013E-2</v>
+      </c>
+      <c r="O3" s="6">
+        <v>8.0399999999999985E-2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="Q3" s="6">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="6">
         <v>2.4900000000000002E-2</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="6">
         <v>0</v>
       </c>
     </row>
@@ -892,34 +947,34 @@
       <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>0.13100000000000001</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <v>0.10400000000000001</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <v>6.2E-2</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <v>5.3600000000000009E-2</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="6">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="6">
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="6">
         <v>1.66E-2</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="6">
         <v>0</v>
       </c>
     </row>
@@ -951,34 +1006,34 @@
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <v>3.1E-2</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>2.6800000000000004E-2</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="6">
         <v>2.07E-2</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="6">
         <v>1.4499999999999999E-2</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="6">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="6">
         <v>0</v>
       </c>
     </row>
@@ -990,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1010,34 +1065,34 @@
       <c r="I6" t="b">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <v>0.18792</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>0.22384000000000001</v>
       </c>
-      <c r="M6">
-        <v>0.24775999999999998</v>
-      </c>
-      <c r="N6">
+      <c r="M6" s="6">
+        <v>0.24775999999999995</v>
+      </c>
+      <c r="N6" s="6">
         <v>0.2656</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <v>0.27999999999999997</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="6">
         <v>0.30000000000000004</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="6">
         <v>0.32000000000000006</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="6">
         <v>0.34</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="6">
         <v>0.36400000000000005</v>
       </c>
     </row>
@@ -1049,7 +1104,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1069,34 +1124,34 @@
       <c r="I7" t="b">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>0.10200000000000001</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <v>0.14093999999999998</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>0.16788</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>0.18581999999999999</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="6">
         <v>0.19920000000000002</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>0.21</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
         <v>0.22499999999999998</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="6">
         <v>0.24</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="6">
         <v>0.255</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="6">
         <v>0.27300000000000002</v>
       </c>
     </row>
@@ -1108,7 +1163,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1128,34 +1183,34 @@
       <c r="I8" t="b">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>9.3960000000000002E-2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>0.11192000000000001</v>
       </c>
-      <c r="M8">
-        <v>0.12387999999999999</v>
-      </c>
-      <c r="N8">
+      <c r="M8" s="6">
+        <v>0.12387999999999998</v>
+      </c>
+      <c r="N8" s="6">
         <v>0.1328</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="6">
         <v>0.13999999999999999</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="6">
         <v>0.15000000000000002</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="6">
         <v>0.16000000000000003</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="6">
         <v>0.17</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="6">
         <v>0.18200000000000002</v>
       </c>
     </row>
@@ -1167,7 +1222,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1187,34 +1242,34 @@
       <c r="I9" t="b">
         <v>1</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>4.6980000000000001E-2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>5.5960000000000003E-2</v>
       </c>
-      <c r="M9">
-        <v>6.1939999999999995E-2</v>
-      </c>
-      <c r="N9">
+      <c r="M9" s="6">
+        <v>6.1939999999999988E-2</v>
+      </c>
+      <c r="N9" s="6">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="6">
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="6">
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="6">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="6">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="6">
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
@@ -1226,7 +1281,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1246,34 +1301,34 @@
       <c r="I10" t="b">
         <v>1</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="6">
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="6">
         <v>1.6E-2</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="6">
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="6">
         <v>2.4E-2</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
@@ -1285,7 +1340,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1305,34 +1360,34 @@
       <c r="I11" t="b">
         <v>1</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>1.5E-3</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="6">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="6">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="6">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="6">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="6">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="6">
         <v>2.4E-2</v>
       </c>
     </row>
@@ -1344,7 +1399,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1364,34 +1419,34 @@
       <c r="I12" t="b">
         <v>1</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <v>2E-3</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="6">
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="6">
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="6">
         <v>1.6E-2</v>
       </c>
     </row>
@@ -1403,7 +1458,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1423,34 +1478,34 @@
       <c r="I13" t="b">
         <v>1</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>1.5E-3</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="6">
         <v>2E-3</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="6">
         <v>2.5000000000000005E-3</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="6">
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -1462,7 +1517,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1482,34 +1537,34 @@
       <c r="I14" t="b">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="6">
         <v>2.3999999999999998E-4</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="6">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="6">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="6">
         <v>2E-3</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="6">
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -1521,7 +1576,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1541,34 +1596,34 @@
       <c r="I15" t="b">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
         <v>1.2E-4</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="6">
         <v>1.7999999999999998E-4</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="6">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="6">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="6">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="6">
         <v>1.5E-3</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="6">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -1580,7 +1635,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1600,34 +1655,34 @@
       <c r="I16" t="b">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>1.1999999999999999E-4</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="6">
         <v>1E-3</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="6">
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="6">
         <v>2E-3</v>
       </c>
     </row>
@@ -1639,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1659,34 +1714,34 @@
       <c r="I17" t="b">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <v>5.9999999999999995E-5</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="6">
         <v>1E-4</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="6">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="6">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="6">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="6">
         <v>1E-3</v>
       </c>
     </row>
@@ -1698,7 +1753,7 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -2659,7 +2714,7 @@
         <v>5.9999999999999995E-5</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" ref="J17:O17" si="14">J24*F32</f>
+        <f t="shared" ref="J17" si="14">J24*F32</f>
         <v>1E-4</v>
       </c>
       <c r="K17" s="2">

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8D4195-B66F-4575-9C4D-2E6706FC3FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94222E-DD07-4B4E-8EEB-BF21786F5068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,27 @@
   </si>
   <si>
     <t>전설1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon17</t>
+  </si>
+  <si>
+    <t>weapon18</t>
+  </si>
+  <si>
+    <t>weapon19</t>
+  </si>
+  <si>
+    <t>전설2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,29 +741,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="10" max="10" width="23.58203125" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
     <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.08203125" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="20.125" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.83203125" customWidth="1"/>
+    <col min="19" max="19" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +822,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -860,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -919,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -978,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1037,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1096,7 +1117,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1155,7 +1176,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1214,7 +1235,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1273,7 +1294,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1332,7 +1353,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1391,7 +1412,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1450,7 +1471,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1509,7 +1530,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1568,7 +1589,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1627,7 +1648,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1686,7 +1707,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1745,7 +1766,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1801,6 +1822,183 @@
         <v>0</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1.2</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>1.2</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>15</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>1.2</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>16</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>0</v>
       </c>
     </row>
@@ -1819,18 +2017,18 @@
       <selection activeCell="F2" sqref="F2:O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="10" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="17.625" customWidth="1"/>
     <col min="14" max="14" width="19.25" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1874,7 +2072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1928,7 +2126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1982,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2036,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2090,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2144,7 +2342,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2198,7 +2396,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2252,7 +2450,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2306,7 +2504,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2360,7 +2558,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2414,7 +2612,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2468,7 +2666,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2522,7 +2720,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2576,7 +2774,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2630,7 +2828,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2684,7 +2882,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2738,7 +2936,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2762,7 +2960,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="2">
         <f t="shared" ref="F19:O19" si="15">SUM(F2:F18)</f>
         <v>1</v>
@@ -2804,14 +3002,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -2846,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,7 +3079,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
@@ -2916,7 +3114,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
@@ -2951,7 +3149,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2961,7 +3159,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3006,12 +3204,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E29" s="1">
         <v>4</v>
       </c>
@@ -3026,7 +3224,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E30" s="1">
         <v>3</v>
       </c>
@@ -3041,7 +3239,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -3056,7 +3254,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -3071,7 +3269,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" s="2">
         <f>SUM(F29:F32)</f>
         <v>0.99999999999999989</v>
@@ -3099,12 +3297,12 @@
       <selection sqref="A1:O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3149,7 +3347,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3204,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3259,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3314,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3369,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3424,7 +3622,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3479,7 +3677,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3534,7 +3732,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3589,7 +3787,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3644,7 +3842,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3699,7 +3897,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3754,7 +3952,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3809,7 +4007,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3864,7 +4062,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3919,7 +4117,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3974,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4029,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4054,7 +4252,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="2">
         <f t="shared" ref="F19:O19" si="16">SUM(F2:F18)</f>
@@ -4097,7 +4295,7 @@
         <v>0.99700000000000011</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4110,7 +4308,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -4145,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -4180,7 +4378,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
@@ -4215,7 +4413,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
@@ -4250,7 +4448,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
@@ -4265,7 +4463,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
@@ -4310,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4318,7 +4516,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
@@ -4328,7 +4526,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E29" s="1">
         <v>4</v>
       </c>
@@ -4345,7 +4543,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E30" s="1">
         <v>3</v>
       </c>
@@ -4362,7 +4560,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -4379,7 +4577,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -4396,7 +4594,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="2">
         <f>SUM(F29:F32)</f>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D94222E-DD07-4B4E-8EEB-BF21786F5068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F60AD-88BC-46C8-B018-720A53D2CD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -264,62 +264,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>상급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon17</t>
+  </si>
+  <si>
+    <t>weapon18</t>
+  </si>
+  <si>
+    <t>weapon19</t>
+  </si>
+  <si>
+    <t>전설2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전설4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>중급3</t>
-  </si>
-  <si>
-    <t>중급4</t>
-  </si>
-  <si>
-    <t>상급1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상급3</t>
-  </si>
-  <si>
-    <t>상급4</t>
-  </si>
-  <si>
-    <t>특급1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특급2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>특급3</t>
-  </si>
-  <si>
-    <t>특급4</t>
-  </si>
-  <si>
-    <t>전설1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon17</t>
-  </si>
-  <si>
-    <t>weapon18</t>
-  </si>
-  <si>
-    <t>weapon19</t>
-  </si>
-  <si>
-    <t>전설2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전설3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전설4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +750,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -830,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -889,7 +895,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -948,7 +954,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1007,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1066,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1125,7 +1131,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1184,7 +1190,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1243,7 +1249,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1302,7 +1308,7 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1361,7 +1367,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1420,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1479,7 +1485,7 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1538,7 +1544,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1597,7 +1603,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1656,7 +1662,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1715,7 +1721,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1830,10 +1836,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -1889,10 +1895,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>4</v>
@@ -1948,10 +1954,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D21">
         <v>4</v>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9F60AD-88BC-46C8-B018-720A53D2CD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0629248-ACA1-4842-A3C9-069786959CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2175" yWindow="3435" windowWidth="34110" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,14 @@
   </si>
   <si>
     <t>특급3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요물1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2005,6 +2013,65 @@
         <v>0</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1.2</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>16</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0629248-ACA1-4842-A3C9-069786959CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B84321-BCC7-48FB-8CB3-0FF1A6D3E470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="3435" windowWidth="34110" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2175" yWindow="3435" windowWidth="35595" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -758,7 +758,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2039,7 +2039,7 @@
         <v>100</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B84321-BCC7-48FB-8CB3-0FF1A6D3E470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F00540-CE1E-458F-8D1B-E9F0FAEBF461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="3435" windowWidth="35595" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4500" yWindow="4800" windowWidth="32265" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,14 @@
   </si>
   <si>
     <t>요물1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해방된요물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,14 +763,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
@@ -2072,6 +2081,65 @@
         <v>0</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>1.2</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>26</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F00540-CE1E-458F-8D1B-E9F0FAEBF461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB434AB-3D7B-4905-A6E5-86F1758BDF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="4800" windowWidth="32265" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해방된요물</t>
+    <t>야차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +766,7 @@
   <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB434AB-3D7B-4905-A6E5-86F1758BDF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FBF1A6-7BF7-4F7A-AD39-3AD1544A9D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,14 @@
   </si>
   <si>
     <t>야차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2140,6 +2148,65 @@
         <v>0</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>1.2</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>28</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FBF1A6-7BF7-4F7A-AD39-3AD1544A9D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDAA5C4-C84B-4322-8879-F92E77525F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,22 @@
   </si>
   <si>
     <t>필멸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸(암)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸(천)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2207,6 +2223,124 @@
         <v>0</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>1.2</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>28</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>1.2</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>28</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDAA5C4-C84B-4322-8879-F92E77525F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EBCA7C-91E7-4A97-9D96-A341A8A79CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -790,7 +790,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2234,10 +2234,10 @@
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -2249,7 +2249,7 @@
         <v>100</v>
       </c>
       <c r="H25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -2293,10 +2293,10 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -2308,7 +2308,7 @@
         <v>100</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EBCA7C-91E7-4A97-9D96-A341A8A79CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65EF892-C4DC-4649-8874-CCFEA65C203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,14 @@
   </si>
   <si>
     <t>필멸(천)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난감칼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2341,6 +2349,65 @@
         <v>0</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>1.2</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65EF892-C4DC-4649-8874-CCFEA65C203B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F7D584-F110-4DDB-9D4C-B7312C8D2A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장난감칼</t>
+    <t>필멸(극)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +798,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2363,7 +2363,7 @@
         <v>90</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27">
         <v>4</v>
@@ -2375,7 +2375,7 @@
         <v>100</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F7D584-F110-4DDB-9D4C-B7312C8D2A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4157F0-C84B-4FE7-B2EA-3843DAC7B837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,14 @@
   </si>
   <si>
     <t>필멸(극)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인드라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -795,30 +803,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="27.375" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="8" max="8" width="27.3984375" customWidth="1"/>
+    <col min="10" max="10" width="23.59765625" customWidth="1"/>
     <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.125" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="20.09765625" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" customWidth="1"/>
     <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.875" customWidth="1"/>
+    <col min="19" max="19" width="20.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +885,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -936,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -995,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1054,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1113,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1172,7 +1180,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1231,7 +1239,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1290,7 +1298,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1349,7 +1357,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1408,7 +1416,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1526,7 +1534,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1585,7 +1593,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1644,7 +1652,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1703,7 +1711,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1762,7 +1770,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1821,7 +1829,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1880,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1939,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1998,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2057,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2116,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2175,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2234,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2293,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2352,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2408,6 +2416,65 @@
         <v>0</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>1.2</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>35</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>0</v>
       </c>
     </row>
@@ -2426,18 +2493,18 @@
       <selection activeCell="F2" sqref="F2:O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="10" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="17.625" customWidth="1"/>
-    <col min="14" max="14" width="19.25" customWidth="1"/>
+    <col min="6" max="10" width="17.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="18.59765625" customWidth="1"/>
+    <col min="13" max="13" width="17.59765625" customWidth="1"/>
+    <col min="14" max="14" width="19.19921875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2481,7 +2548,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2535,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2589,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2643,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2697,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2751,7 +2818,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2805,7 +2872,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2859,7 +2926,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2913,7 +2980,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2967,7 +3034,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3021,7 +3088,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3075,7 +3142,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3129,7 +3196,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3183,7 +3250,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3237,7 +3304,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3291,7 +3358,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3345,7 +3412,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3369,7 +3436,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F19" s="2">
         <f t="shared" ref="F19:O19" si="15">SUM(F2:F18)</f>
         <v>1</v>
@@ -3411,14 +3478,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -3453,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -3488,7 +3555,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
@@ -3523,7 +3590,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
@@ -3558,7 +3625,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3568,7 +3635,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3613,12 +3680,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E29" s="1">
         <v>4</v>
       </c>
@@ -3633,7 +3700,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E30" s="1">
         <v>3</v>
       </c>
@@ -3648,7 +3715,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -3663,7 +3730,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -3678,7 +3745,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F33" s="2">
         <f>SUM(F29:F32)</f>
         <v>0.99999999999999989</v>
@@ -3706,12 +3773,12 @@
       <selection sqref="A1:O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3756,7 +3823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3811,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3866,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3921,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3976,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4031,7 +4098,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4086,7 +4153,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4141,7 +4208,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4196,7 +4263,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4251,7 +4318,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4306,7 +4373,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4361,7 +4428,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4416,7 +4483,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4471,7 +4538,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4526,7 +4593,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4581,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4636,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4661,7 +4728,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E19" s="1"/>
       <c r="F19" s="2">
         <f t="shared" ref="F19:O19" si="16">SUM(F2:F18)</f>
@@ -4704,7 +4771,7 @@
         <v>0.99700000000000011</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4717,7 +4784,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -4752,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -4787,7 +4854,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
@@ -4822,7 +4889,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
@@ -4857,7 +4924,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
@@ -4872,7 +4939,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
@@ -4917,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4925,7 +4992,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
@@ -4935,7 +5002,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E29" s="1">
         <v>4</v>
       </c>
@@ -4952,7 +5019,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E30" s="1">
         <v>3</v>
       </c>
@@ -4969,7 +5036,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -4986,7 +5053,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -5003,7 +5070,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E33" s="1"/>
       <c r="F33" s="2">
         <f>SUM(F29:F32)</f>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4157F0-C84B-4FE7-B2EA-3843DAC7B837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80793D5E-B1FE-4825-B940-99EC6EB05FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="8325" yWindow="5715" windowWidth="24840" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -806,27 +806,27 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
-    <col min="8" max="8" width="27.3984375" customWidth="1"/>
-    <col min="10" max="10" width="23.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
     <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.09765625" customWidth="1"/>
-    <col min="14" max="14" width="16.59765625" customWidth="1"/>
+    <col min="13" max="13" width="20.125" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.8984375" customWidth="1"/>
+    <col min="19" max="19" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +885,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>92</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28">
         <v>4</v>
@@ -2442,7 +2442,7 @@
         <v>100</v>
       </c>
       <c r="H28">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -2493,18 +2493,18 @@
       <selection activeCell="F2" sqref="F2:O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="10" width="17.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" customWidth="1"/>
-    <col min="12" max="12" width="18.59765625" customWidth="1"/>
-    <col min="13" max="13" width="17.59765625" customWidth="1"/>
-    <col min="14" max="14" width="19.19921875" customWidth="1"/>
+    <col min="6" max="10" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="17.625" customWidth="1"/>
+    <col min="14" max="14" width="19.25" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="2">
         <f t="shared" ref="F19:O19" si="15">SUM(F2:F18)</f>
         <v>1</v>
@@ -3478,14 +3478,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
@@ -3590,7 +3590,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3680,12 +3680,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E29" s="1">
         <v>4</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E30" s="1">
         <v>3</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -3730,7 +3730,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" s="2">
         <f>SUM(F29:F32)</f>
         <v>0.99999999999999989</v>
@@ -3773,12 +3773,12 @@
       <selection sqref="A1:O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="2">
         <f t="shared" ref="F19:O19" si="16">SUM(F2:F18)</f>
@@ -4771,7 +4771,7 @@
         <v>0.99700000000000011</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -4784,7 +4784,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
@@ -4939,7 +4939,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4992,7 +4992,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
@@ -5002,7 +5002,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E29" s="1">
         <v>4</v>
       </c>
@@ -5019,7 +5019,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E30" s="1">
         <v>3</v>
       </c>
@@ -5036,7 +5036,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -5053,7 +5053,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -5070,7 +5070,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="2">
         <f>SUM(F29:F32)</f>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80793D5E-B1FE-4825-B940-99EC6EB05FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D73717-54C2-438D-AEEE-7EA1A9BB8C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="5715" windowWidth="24840" windowHeight="11385" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,6 +382,10 @@
   </si>
   <si>
     <t>인드라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -824,9 +828,10 @@
     <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.875" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -884,8 +889,11 @@
       <c r="S1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -943,8 +951,11 @@
       <c r="S2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1002,8 +1013,11 @@
       <c r="S3" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1061,8 +1075,11 @@
       <c r="S4" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1120,8 +1137,11 @@
       <c r="S5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1179,8 +1199,11 @@
       <c r="S6" s="6">
         <v>0.36400000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1238,8 +1261,11 @@
       <c r="S7" s="6">
         <v>0.27300000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1297,8 +1323,11 @@
       <c r="S8" s="6">
         <v>0.18200000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1356,8 +1385,11 @@
       <c r="S9" s="6">
         <v>9.1000000000000011E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1415,8 +1447,11 @@
       <c r="S10" s="6">
         <v>3.2000000000000001E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T10" s="6">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1474,8 +1509,11 @@
       <c r="S11" s="6">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1533,8 +1571,11 @@
       <c r="S12" s="6">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12" s="6">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1592,8 +1633,11 @@
       <c r="S13" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T13" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1651,8 +1695,11 @@
       <c r="S14" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T14" s="6">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1710,8 +1757,11 @@
       <c r="S15" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T15" s="6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1769,8 +1819,11 @@
       <c r="S16" s="6">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" s="6">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1828,8 +1881,11 @@
       <c r="S17" s="6">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" s="6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1887,8 +1943,11 @@
       <c r="S18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T18" s="6">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1946,8 +2005,11 @@
       <c r="S19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2005,8 +2067,11 @@
       <c r="S20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20" s="6">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2064,8 +2129,11 @@
       <c r="S21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2123,8 +2191,11 @@
       <c r="S22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22" s="6">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2182,8 +2253,11 @@
       <c r="S23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23" s="6">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2241,8 +2315,11 @@
       <c r="S24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24" s="6">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2300,8 +2377,11 @@
       <c r="S25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25" s="6">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2359,8 +2439,11 @@
       <c r="S26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26" s="6">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2418,8 +2501,11 @@
       <c r="S27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2476,6 +2562,9 @@
       </c>
       <c r="S28">
         <v>0</v>
+      </c>
+      <c r="T28" s="6">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D73717-54C2-438D-AEEE-7EA1A9BB8C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E022E4E0-9B1F-4C1A-B126-AAD1656C31C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -810,7 +810,7 @@
   <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="6">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E022E4E0-9B1F-4C1A-B126-AAD1656C31C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DE2A7F-967D-419F-A90F-B94E048E96C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="96">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -386,6 +386,14 @@
   </si>
   <si>
     <t>SpecialAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -807,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2564,6 +2572,68 @@
         <v>0</v>
       </c>
       <c r="T28" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>1.2</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>36</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29" s="6">
         <v>2.2000000000000002</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DE2A7F-967D-419F-A90F-B94E048E96C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F1A58-1207-420F-80BE-DA8799128EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -818,7 +818,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2598,7 +2598,7 @@
         <v>100</v>
       </c>
       <c r="H29">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I29" t="b">
         <v>1</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="6">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695F1A58-1207-420F-80BE-DA8799128EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A43C6C-FB58-490E-8220-422D5992737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="8355" yWindow="5580" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,14 @@
   </si>
   <si>
     <t>나타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오로치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2634,6 +2642,68 @@
         <v>0</v>
       </c>
       <c r="T29" s="6">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30">
+        <v>13</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>1.2</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30" s="6">
         <v>2.4</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A43C6C-FB58-490E-8220-422D5992737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AF5680-C268-4C81-9FB4-F0905CC2CE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8355" yWindow="5580" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="6">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AF5680-C268-4C81-9FB4-F0905CC2CE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1BDCD5-12B8-4BC6-A988-D7ECF905F4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,14 @@
   </si>
   <si>
     <t>오로치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸(패)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2705,6 +2713,68 @@
       </c>
       <c r="T30" s="6">
         <v>2.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>1.2</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>40</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" s="6">
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1BDCD5-12B8-4BC6-A988-D7ECF905F4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB108F30-7A93-4767-8F3E-38CF95980151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,14 +402,6 @@
   </si>
   <si>
     <t>오로치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필멸(패)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2713,68 +2705,6 @@
       </c>
       <c r="T30" s="6">
         <v>2.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31">
-        <v>14</v>
-      </c>
-      <c r="E31">
-        <v>4</v>
-      </c>
-      <c r="F31">
-        <v>1.2</v>
-      </c>
-      <c r="G31">
-        <v>100</v>
-      </c>
-      <c r="H31">
-        <v>40</v>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31" s="6">
-        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB108F30-7A93-4767-8F3E-38CF95980151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C1B04A-71D5-4B2B-9ED2-43E9BA40CB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,14 @@
   </si>
   <si>
     <t>오로치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸(패)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -823,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2704,6 +2712,68 @@
         <v>0</v>
       </c>
       <c r="T30" s="6">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>1.2</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>41</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31" s="6">
         <v>2.6</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C1B04A-71D5-4B2B-9ED2-43E9BA40CB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74D7322-CA87-4D71-BCC4-36F6D3B0A41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -834,7 +834,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="6">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74D7322-CA87-4D71-BCC4-36F6D3B0A41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EEA72F-6B3F-467D-A88E-1BBE6833C150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2364" yWindow="2796" windowWidth="17280" windowHeight="10044" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,6 +410,13 @@
   </si>
   <si>
     <t>필멸(패)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon30</t>
+  </si>
+  <si>
+    <t>구미호검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,31 +838,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="27.375" customWidth="1"/>
-    <col min="10" max="10" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="8" max="8" width="27.3984375" customWidth="1"/>
+    <col min="10" max="10" width="23.59765625" customWidth="1"/>
     <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.125" customWidth="1"/>
-    <col min="14" max="14" width="16.625" customWidth="1"/>
+    <col min="13" max="13" width="20.09765625" customWidth="1"/>
+    <col min="14" max="14" width="16.59765625" customWidth="1"/>
     <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.875" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.8984375" customWidth="1"/>
+    <col min="20" max="20" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +924,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -979,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1041,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1103,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1165,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1227,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1289,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1351,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1413,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1475,7 +1482,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1537,7 +1544,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1599,7 +1606,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1661,7 +1668,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1723,7 +1730,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1785,7 +1792,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1847,7 +1854,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1909,7 +1916,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1971,7 +1978,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2033,7 +2040,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2095,7 +2102,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2157,7 +2164,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2219,7 +2226,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2281,7 +2288,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2343,7 +2350,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2405,7 +2412,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2467,7 +2474,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2529,7 +2536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2591,7 +2598,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2653,7 +2660,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2715,7 +2722,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2775,6 +2782,68 @@
       </c>
       <c r="T31" s="6">
         <v>2.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32">
+        <v>15</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>1.2</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>43</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32" s="6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2792,18 +2861,18 @@
       <selection activeCell="F2" sqref="F2:O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="10" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="17.625" customWidth="1"/>
-    <col min="14" max="14" width="19.25" customWidth="1"/>
+    <col min="6" max="10" width="17.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="18.59765625" customWidth="1"/>
+    <col min="13" max="13" width="17.59765625" customWidth="1"/>
+    <col min="14" max="14" width="19.19921875" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2847,7 +2916,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2901,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2955,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3009,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3063,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3117,7 +3186,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3171,7 +3240,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3225,7 +3294,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3279,7 +3348,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3333,7 +3402,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3387,7 +3456,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3441,7 +3510,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3495,7 +3564,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3549,7 +3618,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3603,7 +3672,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3657,7 +3726,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3711,7 +3780,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3735,7 +3804,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="F19" s="2">
         <f t="shared" ref="F19:O19" si="15">SUM(F2:F18)</f>
         <v>1</v>
@@ -3777,14 +3846,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -3819,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -3854,7 +3923,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
@@ -3889,7 +3958,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
@@ -3924,7 +3993,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
@@ -3934,7 +4003,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
@@ -3979,12 +4048,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E29" s="1">
         <v>4</v>
       </c>
@@ -3999,7 +4068,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E30" s="1">
         <v>3</v>
       </c>
@@ -4014,7 +4083,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -4029,7 +4098,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -4044,7 +4113,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F33" s="2">
         <f>SUM(F29:F32)</f>
         <v>0.99999999999999989</v>
@@ -4072,12 +4141,12 @@
       <selection sqref="A1:O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4122,7 +4191,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4177,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4232,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4287,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4342,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4397,7 +4466,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4452,7 +4521,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4507,7 +4576,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4562,7 +4631,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4617,7 +4686,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4672,7 +4741,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4727,7 +4796,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4782,7 +4851,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4837,7 +4906,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4892,7 +4961,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4947,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5002,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5027,7 +5096,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E19" s="1"/>
       <c r="F19" s="2">
         <f t="shared" ref="F19:O19" si="16">SUM(F2:F18)</f>
@@ -5070,7 +5139,7 @@
         <v>0.99700000000000011</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -5083,7 +5152,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -5118,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -5153,7 +5222,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
@@ -5188,7 +5257,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
@@ -5223,7 +5292,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
@@ -5238,7 +5307,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
@@ -5283,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -5291,7 +5360,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
@@ -5301,7 +5370,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E29" s="1">
         <v>4</v>
       </c>
@@ -5318,7 +5387,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E30" s="1">
         <v>3</v>
       </c>
@@ -5335,7 +5404,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -5352,7 +5421,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -5369,7 +5438,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.4">
       <c r="E33" s="1"/>
       <c r="F33" s="2">
         <f>SUM(F29:F32)</f>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EEA72F-6B3F-467D-A88E-1BBE6833C150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE789FE-EF3B-430C-B681-831936D7D017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2364" yWindow="2796" windowWidth="17280" windowHeight="10044" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,13 @@
   </si>
   <si>
     <t>구미호검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon31</t>
+  </si>
+  <si>
+    <t>차사검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,31 +845,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="6.3984375" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
-    <col min="8" max="8" width="27.3984375" customWidth="1"/>
-    <col min="10" max="10" width="23.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="27.375" customWidth="1"/>
+    <col min="10" max="10" width="23.625" customWidth="1"/>
     <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.09765625" customWidth="1"/>
-    <col min="14" max="14" width="16.59765625" customWidth="1"/>
+    <col min="13" max="13" width="20.125" customWidth="1"/>
+    <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.8984375" customWidth="1"/>
-    <col min="20" max="20" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.875" customWidth="1"/>
+    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +931,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -986,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1048,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1110,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1172,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1296,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1358,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1420,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1482,7 +1489,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1606,7 +1613,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1668,7 +1675,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1730,7 +1737,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1792,7 +1799,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1854,7 +1861,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1916,7 +1923,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2040,7 +2047,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2102,7 +2109,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2164,7 +2171,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2226,7 +2233,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2288,7 +2295,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2350,7 +2357,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2412,7 +2419,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2474,7 +2481,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2536,7 +2543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2598,7 +2605,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2660,7 +2667,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2722,7 +2729,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2784,7 +2791,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2844,6 +2851,68 @@
       </c>
       <c r="T32" s="6">
         <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>1.2</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+      <c r="H33">
+        <v>46</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33" s="6">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>
@@ -2861,18 +2930,18 @@
       <selection activeCell="F2" sqref="F2:O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="10" width="17.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" customWidth="1"/>
-    <col min="12" max="12" width="18.59765625" customWidth="1"/>
-    <col min="13" max="13" width="17.59765625" customWidth="1"/>
-    <col min="14" max="14" width="19.19921875" customWidth="1"/>
+    <col min="6" max="10" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="17.625" customWidth="1"/>
+    <col min="14" max="14" width="19.25" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2916,7 +2985,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2970,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3024,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3078,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3132,7 +3201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3186,7 +3255,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3240,7 +3309,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3294,7 +3363,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3348,7 +3417,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3402,7 +3471,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3456,7 +3525,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3510,7 +3579,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3564,7 +3633,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3618,7 +3687,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3672,7 +3741,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3726,7 +3795,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3780,7 +3849,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3804,7 +3873,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="F19" s="2">
         <f t="shared" ref="F19:O19" si="15">SUM(F2:F18)</f>
         <v>1</v>
@@ -3846,14 +3915,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -3888,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -3923,7 +3992,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
@@ -3958,7 +4027,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
@@ -3993,7 +4062,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
@@ -4003,7 +4072,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
@@ -4048,12 +4117,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E29" s="1">
         <v>4</v>
       </c>
@@ -4068,7 +4137,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E30" s="1">
         <v>3</v>
       </c>
@@ -4083,7 +4152,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -4098,7 +4167,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -4113,7 +4182,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" s="2">
         <f>SUM(F29:F32)</f>
         <v>0.99999999999999989</v>
@@ -4141,12 +4210,12 @@
       <selection sqref="A1:O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="20.3984375" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4191,7 +4260,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4246,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4301,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4356,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4411,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4466,7 +4535,7 @@
         <v>0.36400000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4521,7 +4590,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4576,7 +4645,7 @@
         <v>0.18200000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4631,7 +4700,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4686,7 +4755,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4741,7 +4810,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4796,7 +4865,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4851,7 +4920,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4906,7 +4975,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4961,7 +5030,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5016,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5071,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5096,7 +5165,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="2">
         <f t="shared" ref="F19:O19" si="16">SUM(F2:F18)</f>
@@ -5139,7 +5208,7 @@
         <v>0.99700000000000011</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -5152,7 +5221,7 @@
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>48</v>
       </c>
@@ -5187,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>49</v>
       </c>
@@ -5222,7 +5291,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>50</v>
       </c>
@@ -5257,7 +5326,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
@@ -5292,7 +5361,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
         <v>52</v>
       </c>
@@ -5307,7 +5376,7 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>53</v>
       </c>
@@ -5352,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -5360,7 +5429,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E28" s="5" t="s">
         <v>54</v>
       </c>
@@ -5370,7 +5439,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E29" s="1">
         <v>4</v>
       </c>
@@ -5387,7 +5456,7 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E30" s="1">
         <v>3</v>
       </c>
@@ -5404,7 +5473,7 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E31" s="1">
         <v>2</v>
       </c>
@@ -5421,7 +5490,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E32" s="1">
         <v>1</v>
       </c>
@@ -5438,7 +5507,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E33" s="1"/>
       <c r="F33" s="2">
         <f>SUM(F29:F32)</f>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE789FE-EF3B-430C-B681-831936D7D017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76488306-BA19-4F37-8C70-9549856165A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="108">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,6 +424,22 @@
   </si>
   <si>
     <t>차사검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>염라검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여래검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -845,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T33"/>
+  <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2912,6 +2928,130 @@
         <v>0</v>
       </c>
       <c r="T33" s="6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>1.2</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>48</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34" s="6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>1.2</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+      <c r="H35">
+        <v>49</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35" s="6">
         <v>3.2</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76488306-BA19-4F37-8C70-9549856165A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F8FBF8-93A7-4323-9110-DA0F40C47206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -864,7 +864,7 @@
   <dimension ref="A1:T35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2990,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="6">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="6">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F8FBF8-93A7-4323-9110-DA0F40C47206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519DD3A9-4071-4839-B9B4-F847A9C38860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,6 +440,14 @@
   </si>
   <si>
     <t>여래검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강림검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -861,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T35"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3053,6 +3061,68 @@
       </c>
       <c r="T35" s="6">
         <v>3.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>1.2</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+      <c r="H36">
+        <v>52</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36" s="6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519DD3A9-4071-4839-B9B4-F847A9C38860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474423F-7CEB-442C-950B-919472144FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,14 @@
   </si>
   <si>
     <t>강림검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불멸검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3123,6 +3131,68 @@
       </c>
       <c r="T36" s="6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>1.2</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+      <c r="H37">
+        <v>54</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37" s="6">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474423F-7CEB-442C-950B-919472144FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AABE9C7-8184-4169-9048-AF750FAEE503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="124">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,6 +456,48 @@
   </si>
   <si>
     <t>불멸검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사인검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon36</t>
+  </si>
+  <si>
+    <t>weapon37</t>
+  </si>
+  <si>
+    <t>weapon38</t>
+  </si>
+  <si>
+    <t>weapon39</t>
+  </si>
+  <si>
+    <t>weapon40</t>
+  </si>
+  <si>
+    <t>weapon41</t>
+  </si>
+  <si>
+    <t>부채1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +581,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -559,6 +601,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3193,6 +3238,378 @@
       </c>
       <c r="T37" s="6">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>1.2</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+      <c r="H38">
+        <v>54</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38" s="6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="1">
+        <v>18</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>100</v>
+      </c>
+      <c r="H39" s="1">
+        <v>54</v>
+      </c>
+      <c r="I39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>0</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1">
+        <v>18</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>100</v>
+      </c>
+      <c r="H40" s="1">
+        <v>54</v>
+      </c>
+      <c r="I40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0</v>
+      </c>
+      <c r="T40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="1">
+        <v>18</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>100</v>
+      </c>
+      <c r="H41" s="1">
+        <v>54</v>
+      </c>
+      <c r="I41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="1">
+        <v>18</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>100</v>
+      </c>
+      <c r="H42" s="1">
+        <v>54</v>
+      </c>
+      <c r="I42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="N42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>0</v>
+      </c>
+      <c r="P42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>0</v>
+      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="1">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>100</v>
+      </c>
+      <c r="H43" s="1">
+        <v>54</v>
+      </c>
+      <c r="I43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>0</v>
+      </c>
+      <c r="P43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>0</v>
+      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AABE9C7-8184-4169-9048-AF750FAEE503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631786BF-8115-4702-B6FD-989C4E2A3B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3263,7 +3263,7 @@
         <v>100</v>
       </c>
       <c r="H38">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="6">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3325,7 +3325,7 @@
         <v>100</v>
       </c>
       <c r="H39" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I39" s="1" t="b">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>100</v>
       </c>
       <c r="H40" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I40" s="1" t="b">
         <v>1</v>
@@ -3449,7 +3449,7 @@
         <v>100</v>
       </c>
       <c r="H41" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I41" s="1" t="b">
         <v>1</v>
@@ -3511,7 +3511,7 @@
         <v>100</v>
       </c>
       <c r="H42" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I42" s="1" t="b">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>100</v>
       </c>
       <c r="H43" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I43" s="1" t="b">
         <v>1</v>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631786BF-8115-4702-B6FD-989C4E2A3B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13759811-A856-47B0-B8AA-93AF97ED4EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="130">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -499,6 +499,24 @@
   <si>
     <t>부채5</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon42</t>
+  </si>
+  <si>
+    <t>weapon43</t>
+  </si>
+  <si>
+    <t>weapon44</t>
+  </si>
+  <si>
+    <t>부채6</t>
+  </si>
+  <si>
+    <t>부채7</t>
+  </si>
+  <si>
+    <t>부채8</t>
   </si>
 </sst>
 </file>
@@ -922,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3609,6 +3627,192 @@
         <v>0</v>
       </c>
       <c r="T43" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="1">
+        <v>18</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>100</v>
+      </c>
+      <c r="H44" s="1">
+        <v>57</v>
+      </c>
+      <c r="I44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>0</v>
+      </c>
+      <c r="P44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>0</v>
+      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="1">
+        <v>18</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>100</v>
+      </c>
+      <c r="H45" s="1">
+        <v>57</v>
+      </c>
+      <c r="I45" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" s="1">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>100</v>
+      </c>
+      <c r="H46" s="1">
+        <v>57</v>
+      </c>
+      <c r="I46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>0</v>
+      </c>
+      <c r="P46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13759811-A856-47B0-B8AA-93AF97ED4EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2F36C1-1E26-4E19-ADCB-8F95D4120E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -504,19 +504,7 @@
     <t>weapon42</t>
   </si>
   <si>
-    <t>weapon43</t>
-  </si>
-  <si>
-    <t>weapon44</t>
-  </si>
-  <si>
     <t>부채6</t>
-  </si>
-  <si>
-    <t>부채7</t>
-  </si>
-  <si>
-    <t>부채8</t>
   </si>
 </sst>
 </file>
@@ -940,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3638,7 +3626,7 @@
         <v>124</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D44" s="1">
         <v>18</v>
@@ -3689,130 +3677,6 @@
         <v>0</v>
       </c>
       <c r="T44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D45" s="1">
-        <v>18</v>
-      </c>
-      <c r="E45" s="1">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G45" s="1">
-        <v>100</v>
-      </c>
-      <c r="H45" s="1">
-        <v>57</v>
-      </c>
-      <c r="I45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0</v>
-      </c>
-      <c r="M45" s="1">
-        <v>0</v>
-      </c>
-      <c r="N45" s="1">
-        <v>0</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>0</v>
-      </c>
-      <c r="R45" s="1">
-        <v>0</v>
-      </c>
-      <c r="S45" s="1">
-        <v>0</v>
-      </c>
-      <c r="T45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="1">
-        <v>18</v>
-      </c>
-      <c r="E46" s="1">
-        <v>4</v>
-      </c>
-      <c r="F46" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G46" s="1">
-        <v>100</v>
-      </c>
-      <c r="H46" s="1">
-        <v>57</v>
-      </c>
-      <c r="I46" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0</v>
-      </c>
-      <c r="M46" s="1">
-        <v>0</v>
-      </c>
-      <c r="N46" s="1">
-        <v>0</v>
-      </c>
-      <c r="O46" s="1">
-        <v>0</v>
-      </c>
-      <c r="P46" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="1">
-        <v>0</v>
-      </c>
-      <c r="R46" s="1">
-        <v>0</v>
-      </c>
-      <c r="S46" s="1">
-        <v>0</v>
-      </c>
-      <c r="T46" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2F36C1-1E26-4E19-ADCB-8F95D4120E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66B9325-1124-4443-B354-62230628589E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="130">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -505,6 +505,20 @@
   </si>
   <si>
     <t>부채6</t>
+  </si>
+  <si>
+    <t>weapon43</t>
+  </si>
+  <si>
+    <t>weapon44</t>
+  </si>
+  <si>
+    <t>천계검2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -928,10 +942,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3678,6 +3694,130 @@
       </c>
       <c r="T44" s="7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45">
+        <v>19</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>1.2</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+      <c r="H45">
+        <v>58</v>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46">
+        <v>19</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>1.2</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+      <c r="H46">
+        <v>59</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46" s="6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66B9325-1124-4443-B354-62230628589E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAD466-DD22-43F2-AA00-202B06E9CCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,6 +519,38 @@
   <si>
     <t>천계검1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon45</t>
+  </si>
+  <si>
+    <t>weapon46</t>
+  </si>
+  <si>
+    <t>weapon47</t>
+  </si>
+  <si>
+    <t>weapon48</t>
+  </si>
+  <si>
+    <t>weapon49</t>
+  </si>
+  <si>
+    <t>추천용무기0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기2</t>
+  </si>
+  <si>
+    <t>추천용무기3</t>
+  </si>
+  <si>
+    <t>추천용무기4</t>
   </si>
 </sst>
 </file>
@@ -942,18 +974,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="38.375" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
@@ -3818,6 +3850,316 @@
       </c>
       <c r="T46" s="6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="1">
+        <v>20</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>100</v>
+      </c>
+      <c r="H47" s="1">
+        <v>57</v>
+      </c>
+      <c r="I47" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0</v>
+      </c>
+      <c r="P47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>0</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="1">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>100</v>
+      </c>
+      <c r="H48" s="1">
+        <v>57</v>
+      </c>
+      <c r="I48" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>0</v>
+      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="1">
+        <v>20</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>100</v>
+      </c>
+      <c r="H49" s="1">
+        <v>57</v>
+      </c>
+      <c r="I49" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>0</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>0</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="1">
+        <v>20</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>100</v>
+      </c>
+      <c r="H50" s="1">
+        <v>57</v>
+      </c>
+      <c r="I50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="P50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>0</v>
+      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="1">
+        <v>20</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>100</v>
+      </c>
+      <c r="H51" s="1">
+        <v>57</v>
+      </c>
+      <c r="I51" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0</v>
+      </c>
+      <c r="P51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>0</v>
+      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAD466-DD22-43F2-AA00-202B06E9CCFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F4D1DD-3D72-49B4-B790-96558EB4B3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -976,10 +976,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3751,7 +3751,7 @@
         <v>100</v>
       </c>
       <c r="H45">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I45" t="b">
         <v>1</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
         <v>100</v>
       </c>
       <c r="H46">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F4D1DD-3D72-49B4-B790-96558EB4B3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D6DE6F-9164-425C-B80B-2F9E51E5CF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="144">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -551,6 +551,20 @@
   </si>
   <si>
     <t>추천용무기4</t>
+  </si>
+  <si>
+    <t>weapon50</t>
+  </si>
+  <si>
+    <t>weapon51</t>
+  </si>
+  <si>
+    <t>천계검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계검4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -974,12 +988,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="T44" sqref="T44"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4160,6 +4174,130 @@
       </c>
       <c r="T51" s="7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>1.2</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>65</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53">
+        <v>19</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>1.2</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+      <c r="H53">
+        <v>66</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53" s="6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D6DE6F-9164-425C-B80B-2F9E51E5CF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C9329-072A-4B4C-88D5-4AFC77F90AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -993,7 +993,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C9329-072A-4B4C-88D5-4AFC77F90AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A5A604-D559-468A-8593-FBC2F7CA852F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -565,6 +565,37 @@
   <si>
     <t>천계검4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon52</t>
+  </si>
+  <si>
+    <t>weapon53</t>
+  </si>
+  <si>
+    <t>weapon54</t>
+  </si>
+  <si>
+    <t>weapon55</t>
+  </si>
+  <si>
+    <t>weapon56</t>
+  </si>
+  <si>
+    <t>추천용무기5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기6</t>
+  </si>
+  <si>
+    <t>추천용무기7</t>
+  </si>
+  <si>
+    <t>추천용무기8</t>
+  </si>
+  <si>
+    <t>추천용무기9</t>
   </si>
 </sst>
 </file>
@@ -988,12 +1019,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T53"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4298,6 +4329,316 @@
       </c>
       <c r="T53" s="6">
         <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="1">
+        <v>20</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>100</v>
+      </c>
+      <c r="H54" s="1">
+        <v>57</v>
+      </c>
+      <c r="I54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+      <c r="M54" s="1">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+      <c r="P54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0</v>
+      </c>
+      <c r="R54" s="1">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="1">
+        <v>20</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>100</v>
+      </c>
+      <c r="H55" s="1">
+        <v>57</v>
+      </c>
+      <c r="I55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+      <c r="M55" s="1">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>0</v>
+      </c>
+      <c r="P55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0</v>
+      </c>
+      <c r="R55" s="1">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D56" s="1">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>100</v>
+      </c>
+      <c r="H56" s="1">
+        <v>57</v>
+      </c>
+      <c r="I56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+      <c r="P56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0</v>
+      </c>
+      <c r="R56" s="1">
+        <v>0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="1">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>100</v>
+      </c>
+      <c r="H57" s="1">
+        <v>57</v>
+      </c>
+      <c r="I57" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+      <c r="M57" s="1">
+        <v>0</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>0</v>
+      </c>
+      <c r="P57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0</v>
+      </c>
+      <c r="R57" s="1">
+        <v>0</v>
+      </c>
+      <c r="S57" s="1">
+        <v>0</v>
+      </c>
+      <c r="T57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="1">
+        <v>20</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>100</v>
+      </c>
+      <c r="H58" s="1">
+        <v>57</v>
+      </c>
+      <c r="I58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>0</v>
+      </c>
+      <c r="M58" s="1">
+        <v>0</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="P58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0</v>
+      </c>
+      <c r="R58" s="1">
+        <v>0</v>
+      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A5A604-D559-468A-8593-FBC2F7CA852F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E13D65-2E7C-4503-9309-13061505B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="160">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,6 +596,28 @@
   </si>
   <si>
     <t>추천용무기9</t>
+  </si>
+  <si>
+    <t>weapon57</t>
+  </si>
+  <si>
+    <t>도깨비검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon59</t>
+  </si>
+  <si>
+    <t>도깨비검2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1019,12 +1041,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D57" sqref="D57"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1064,7 @@
     <col min="14" max="14" width="16.625" customWidth="1"/>
     <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.875" customWidth="1"/>
-    <col min="20" max="20" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -4639,6 +4661,192 @@
       </c>
       <c r="T58" s="7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>155</v>
+      </c>
+      <c r="D59">
+        <v>22</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>1.2</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+      <c r="H59">
+        <v>69</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>157</v>
+      </c>
+      <c r="C60" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60">
+        <v>22</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>1.2</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="H60">
+        <v>70</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61">
+        <v>22</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>1.2</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+      <c r="H61">
+        <v>71</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61" s="6">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84E13D65-2E7C-4503-9309-13061505B075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0B19BF-B96A-4F01-A754-B03D5C7E2C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="166">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -618,6 +618,26 @@
   <si>
     <t>도깨비검2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon60</t>
+  </si>
+  <si>
+    <t>weapon61</t>
+  </si>
+  <si>
+    <t>weapon62</t>
+  </si>
+  <si>
+    <t>추천용무기10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기12</t>
   </si>
 </sst>
 </file>
@@ -1041,12 +1061,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T61"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4847,6 +4867,192 @@
       </c>
       <c r="T61" s="6">
         <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D62" s="1">
+        <v>20</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>100</v>
+      </c>
+      <c r="H62" s="1">
+        <v>57</v>
+      </c>
+      <c r="I62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="1">
+        <v>0</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D63" s="1">
+        <v>20</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>100</v>
+      </c>
+      <c r="H63" s="1">
+        <v>57</v>
+      </c>
+      <c r="I63" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>0</v>
+      </c>
+      <c r="M63" s="1">
+        <v>0</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0</v>
+      </c>
+      <c r="R63" s="1">
+        <v>0</v>
+      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64" s="1">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1">
+        <v>4</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>100</v>
+      </c>
+      <c r="H64" s="1">
+        <v>57</v>
+      </c>
+      <c r="I64" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="1">
+        <v>0</v>
+      </c>
+      <c r="M64" s="1">
+        <v>0</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0</v>
+      </c>
+      <c r="R64" s="1">
+        <v>0</v>
+      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0B19BF-B96A-4F01-A754-B03D5C7E2C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7246968-FA52-4AC6-821D-582AB78DD872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="170">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -638,6 +638,20 @@
   </si>
   <si>
     <t>추천용무기12</t>
+  </si>
+  <si>
+    <t>weapon63</t>
+  </si>
+  <si>
+    <t>weapon64</t>
+  </si>
+  <si>
+    <t>도깨비검3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1061,12 +1075,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5053,6 +5067,130 @@
       </c>
       <c r="T64" s="7">
         <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" t="s">
+        <v>168</v>
+      </c>
+      <c r="D65">
+        <v>22</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>1.2</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+      <c r="H65">
+        <v>76</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D66">
+        <v>22</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>1.2</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>77</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66" s="6">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\project3\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7246968-FA52-4AC6-821D-582AB78DD872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28D95A9-204E-482A-B3FD-1EBF20B70B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="174">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,6 +652,18 @@
   <si>
     <t>도깨비검4</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon65</t>
+  </si>
+  <si>
+    <t>도깨비검5</t>
+  </si>
+  <si>
+    <t>weapon66</t>
+  </si>
+  <si>
+    <t>도깨비검6</t>
   </si>
 </sst>
 </file>
@@ -1075,12 +1087,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5191,6 +5203,130 @@
       </c>
       <c r="T66" s="6">
         <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67">
+        <v>22</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>1.2</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+      <c r="H67">
+        <v>80</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>173</v>
+      </c>
+      <c r="D68">
+        <v>22</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>1.2</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+      <c r="H68">
+        <v>81</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68" s="6">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28D95A9-204E-482A-B3FD-1EBF20B70B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE21227-BEBA-47BB-BB36-60ED24DDDB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="194">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,6 +664,73 @@
   </si>
   <si>
     <t>도깨비검6</t>
+  </si>
+  <si>
+    <t>weapon67</t>
+  </si>
+  <si>
+    <t>weapon68</t>
+  </si>
+  <si>
+    <t>weapon69</t>
+  </si>
+  <si>
+    <t>weapon70</t>
+  </si>
+  <si>
+    <t>현무검(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백호검(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작검(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡검(진)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon71</t>
+  </si>
+  <si>
+    <t>weapon72</t>
+  </si>
+  <si>
+    <t>weapon73</t>
+  </si>
+  <si>
+    <t>weapon74</t>
+  </si>
+  <si>
+    <t>weapon75</t>
+  </si>
+  <si>
+    <t>weapon76</t>
+  </si>
+  <si>
+    <t>추천용무기13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기16</t>
+  </si>
+  <si>
+    <t>추천용무기17</t>
+  </si>
+  <si>
+    <t>추천용무기18</t>
   </si>
 </sst>
 </file>
@@ -1087,12 +1154,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5327,6 +5394,626 @@
       </c>
       <c r="T68" s="6">
         <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69">
+        <v>23</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>1.2</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>84</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C70" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70">
+        <v>23</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>1.2</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>85</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71">
+        <v>23</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>1.2</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>86</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" t="s">
+        <v>181</v>
+      </c>
+      <c r="D72">
+        <v>23</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>1.2</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>87</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="1">
+        <v>20</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>100</v>
+      </c>
+      <c r="H73" s="1">
+        <v>57</v>
+      </c>
+      <c r="I73" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0</v>
+      </c>
+      <c r="R73" s="1">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>0</v>
+      </c>
+      <c r="T73" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="1">
+        <v>20</v>
+      </c>
+      <c r="E74" s="1">
+        <v>4</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>100</v>
+      </c>
+      <c r="H74" s="1">
+        <v>57</v>
+      </c>
+      <c r="I74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>0</v>
+      </c>
+      <c r="R74" s="1">
+        <v>0</v>
+      </c>
+      <c r="S74" s="1">
+        <v>0</v>
+      </c>
+      <c r="T74" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D75" s="1">
+        <v>20</v>
+      </c>
+      <c r="E75" s="1">
+        <v>4</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>100</v>
+      </c>
+      <c r="H75" s="1">
+        <v>57</v>
+      </c>
+      <c r="I75" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>0</v>
+      </c>
+      <c r="R75" s="1">
+        <v>0</v>
+      </c>
+      <c r="S75" s="1">
+        <v>0</v>
+      </c>
+      <c r="T75" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D76" s="1">
+        <v>20</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>100</v>
+      </c>
+      <c r="H76" s="1">
+        <v>57</v>
+      </c>
+      <c r="I76" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>0</v>
+      </c>
+      <c r="R76" s="1">
+        <v>0</v>
+      </c>
+      <c r="S76" s="1">
+        <v>0</v>
+      </c>
+      <c r="T76" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D77" s="1">
+        <v>20</v>
+      </c>
+      <c r="E77" s="1">
+        <v>4</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>100</v>
+      </c>
+      <c r="H77" s="1">
+        <v>57</v>
+      </c>
+      <c r="I77" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>0</v>
+      </c>
+      <c r="M77" s="1">
+        <v>0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+      <c r="P77" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>0</v>
+      </c>
+      <c r="R77" s="1">
+        <v>0</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="1">
+        <v>20</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>100</v>
+      </c>
+      <c r="H78" s="1">
+        <v>57</v>
+      </c>
+      <c r="I78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+      <c r="P78" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>0</v>
+      </c>
+      <c r="R78" s="1">
+        <v>0</v>
+      </c>
+      <c r="S78" s="1">
+        <v>0</v>
+      </c>
+      <c r="T78" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE21227-BEBA-47BB-BB36-60ED24DDDB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF4B8E8-4ED9-47B0-8B12-931E1AAF3B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="204">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -731,6 +731,40 @@
   </si>
   <si>
     <t>추천용무기18</t>
+  </si>
+  <si>
+    <t>도깨비검8</t>
+  </si>
+  <si>
+    <t>weapon77</t>
+  </si>
+  <si>
+    <t>weapon78</t>
+  </si>
+  <si>
+    <t>도깨비검7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon79</t>
+  </si>
+  <si>
+    <t>도깨비검9</t>
+  </si>
+  <si>
+    <t>weapon80</t>
+  </si>
+  <si>
+    <t>수미산검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새해 패스 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1154,12 +1188,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T78"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6013,6 +6047,316 @@
         <v>0</v>
       </c>
       <c r="T78" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79">
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>1.2</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+      <c r="H79">
+        <v>88</v>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80">
+        <v>22</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>1.2</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+      <c r="H80">
+        <v>89</v>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81">
+        <v>22</v>
+      </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>1.2</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+      <c r="H81">
+        <v>90</v>
+      </c>
+      <c r="I81" t="b">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>200</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82">
+        <v>24</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>1.2</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+      <c r="H82">
+        <v>94</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>203</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D83" s="1">
+        <v>18</v>
+      </c>
+      <c r="E83" s="1">
+        <v>4</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>100</v>
+      </c>
+      <c r="H83" s="1">
+        <v>96</v>
+      </c>
+      <c r="I83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0</v>
+      </c>
+      <c r="M83" s="1">
+        <v>0</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0</v>
+      </c>
+      <c r="P83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>0</v>
+      </c>
+      <c r="R83" s="1">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <v>0</v>
+      </c>
+      <c r="T83" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF4B8E8-4ED9-47B0-8B12-931E1AAF3B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B656F-87C5-4850-90A6-E76A3E4FB2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="300" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="208">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,61 +709,76 @@
     <t>weapon75</t>
   </si>
   <si>
+    <t>추천용무기13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기16</t>
+  </si>
+  <si>
+    <t>추천용무기17</t>
+  </si>
+  <si>
+    <t>추천용무기18</t>
+  </si>
+  <si>
+    <t>도깨비검8</t>
+  </si>
+  <si>
+    <t>weapon77</t>
+  </si>
+  <si>
+    <t>weapon78</t>
+  </si>
+  <si>
+    <t>도깨비검7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon79</t>
+  </si>
+  <si>
+    <t>도깨비검9</t>
+  </si>
+  <si>
+    <t>weapon80</t>
+  </si>
+  <si>
+    <t>수미산검0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새해 패스 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon82</t>
+  </si>
+  <si>
+    <t>weapon83</t>
+  </si>
+  <si>
+    <t>추천용무기19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천용무기20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>weapon76</t>
-  </si>
-  <si>
-    <t>추천용무기13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천용무기14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천용무기15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천용무기16</t>
-  </si>
-  <si>
-    <t>추천용무기17</t>
-  </si>
-  <si>
-    <t>추천용무기18</t>
-  </si>
-  <si>
-    <t>도깨비검8</t>
-  </si>
-  <si>
-    <t>weapon77</t>
-  </si>
-  <si>
-    <t>weapon78</t>
-  </si>
-  <si>
-    <t>도깨비검7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon79</t>
-  </si>
-  <si>
-    <t>도깨비검9</t>
-  </si>
-  <si>
-    <t>weapon80</t>
-  </si>
-  <si>
-    <t>수미산검0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새해 패스 무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon81</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1188,12 +1203,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5686,7 +5701,7 @@
         <v>182</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D73" s="1">
         <v>20</v>
@@ -5748,7 +5763,7 @@
         <v>183</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D74" s="1">
         <v>20</v>
@@ -5810,7 +5825,7 @@
         <v>184</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D75" s="1">
         <v>20</v>
@@ -5872,7 +5887,7 @@
         <v>185</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D76" s="1">
         <v>20</v>
@@ -5934,7 +5949,7 @@
         <v>186</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D77" s="1">
         <v>20</v>
@@ -5993,10 +6008,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D78" s="1">
         <v>20</v>
@@ -6055,10 +6070,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D79">
         <v>22</v>
@@ -6117,10 +6132,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D80">
         <v>22</v>
@@ -6179,10 +6194,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" t="s">
         <v>198</v>
-      </c>
-      <c r="C81" t="s">
-        <v>199</v>
       </c>
       <c r="D81">
         <v>22</v>
@@ -6241,10 +6256,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
+        <v>199</v>
+      </c>
+      <c r="C82" t="s">
         <v>200</v>
-      </c>
-      <c r="C82" t="s">
-        <v>201</v>
       </c>
       <c r="D82">
         <v>24</v>
@@ -6303,10 +6318,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D83" s="1">
         <v>18</v>
@@ -6357,6 +6372,130 @@
         <v>0</v>
       </c>
       <c r="T83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>203</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D84" s="1">
+        <v>20</v>
+      </c>
+      <c r="E84" s="1">
+        <v>4</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G84" s="1">
+        <v>100</v>
+      </c>
+      <c r="H84" s="1">
+        <v>57</v>
+      </c>
+      <c r="I84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" s="1">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+      <c r="M84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
+      </c>
+      <c r="P84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>0</v>
+      </c>
+      <c r="R84" s="1">
+        <v>0</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D85" s="1">
+        <v>20</v>
+      </c>
+      <c r="E85" s="1">
+        <v>4</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>100</v>
+      </c>
+      <c r="H85" s="1">
+        <v>57</v>
+      </c>
+      <c r="I85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" s="1">
+        <v>0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>0</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0</v>
+      </c>
+      <c r="P85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>0</v>
+      </c>
+      <c r="R85" s="1">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B656F-87C5-4850-90A6-E76A3E4FB2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CCA3AC-1F03-41C1-BDFD-2E45023B875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
     <sheet name="Prob" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Weapon!$A$1:$AA$86</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="220">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,26 +336,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요물1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>야차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필멸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,30 +352,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필멸(암)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필멸(천)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필멸(극)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인드라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpecialAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,26 +368,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오로치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>필멸(패)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon30</t>
   </si>
   <si>
@@ -513,14 +476,6 @@
     <t>weapon44</t>
   </si>
   <si>
-    <t>천계검2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천계검1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon45</t>
   </si>
   <si>
@@ -559,14 +514,6 @@
     <t>weapon51</t>
   </si>
   <si>
-    <t>천계검3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천계검4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon52</t>
   </si>
   <si>
@@ -601,14 +548,6 @@
     <t>weapon57</t>
   </si>
   <si>
-    <t>도깨비검0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비검1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon58</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -616,10 +555,6 @@
     <t>weapon59</t>
   </si>
   <si>
-    <t>도깨비검2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon60</t>
   </si>
   <si>
@@ -646,26 +581,12 @@
     <t>weapon64</t>
   </si>
   <si>
-    <t>도깨비검3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도깨비검4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon65</t>
   </si>
   <si>
-    <t>도깨비검5</t>
-  </si>
-  <si>
     <t>weapon66</t>
   </si>
   <si>
-    <t>도깨비검6</t>
-  </si>
-  <si>
     <t>weapon67</t>
   </si>
   <si>
@@ -730,32 +651,18 @@
     <t>추천용무기18</t>
   </si>
   <si>
-    <t>도깨비검8</t>
-  </si>
-  <si>
     <t>weapon77</t>
   </si>
   <si>
     <t>weapon78</t>
   </si>
   <si>
-    <t>도깨비검7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon79</t>
   </si>
   <si>
-    <t>도깨비검9</t>
-  </si>
-  <si>
     <t>weapon80</t>
   </si>
   <si>
-    <t>수미산검0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>새해 패스 무기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,6 +686,152 @@
   </si>
   <si>
     <t>weapon76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon84</t>
+  </si>
+  <si>
+    <t>RewardType0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardValue0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionEffectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸(패)검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오로치검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인드라검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸(극)검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸(천)검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야차검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요물검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필멸(암)검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달의검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천둥검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뇌량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>암량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지국천왕검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우량검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광목천왕검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,10 +839,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000000000%"/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
     <numFmt numFmtId="178" formatCode="0.0000000000_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -824,7 +878,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -839,6 +893,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -862,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,7 +950,28 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1282,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1203,12 +1290,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
+      <selection pane="bottomLeft" activeCell="Z93" sqref="Z91:AA93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1227,9 +1314,15 @@
     <col min="15" max="18" width="13.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.875" customWidth="1"/>
     <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1288,1250 +1381,1691 @@
         <v>59</v>
       </c>
       <c r="T1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U1" t="s">
+        <v>184</v>
+      </c>
+      <c r="V1" t="s">
+        <v>185</v>
+      </c>
+      <c r="W1" t="s">
+        <v>192</v>
+      </c>
+      <c r="X1" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="12">
         <v>1.2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="12">
         <v>100</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13">
         <v>0.26200000000000001</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="13">
         <v>0.20800000000000002</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="13">
         <v>0.17</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="13">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="13">
         <v>0.124</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="13">
         <v>0.10720000000000002</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="13">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="13">
         <v>5.7999999999999996E-2</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="13">
         <v>3.32E-2</v>
       </c>
-      <c r="S2" s="6">
-        <v>0</v>
-      </c>
-      <c r="T2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="S2" s="13">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13">
+        <v>1</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14">
+        <v>1</v>
+      </c>
+      <c r="X2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="12">
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="12">
         <v>1.2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="12">
         <v>100</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="H3" s="12">
+        <v>0</v>
+      </c>
+      <c r="I3" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
         <v>0.19650000000000001</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="13">
         <v>0.156</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="13">
         <v>0.1275</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="13">
         <v>0.10800000000000001</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="13">
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="13">
         <v>8.0399999999999985E-2</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="13">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="13">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="13">
         <v>2.4900000000000002E-2</v>
       </c>
-      <c r="S3" s="6">
-        <v>0</v>
-      </c>
-      <c r="T3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="S3" s="13">
+        <v>0</v>
+      </c>
+      <c r="T3" s="13">
+        <v>1</v>
+      </c>
+      <c r="U3" s="14">
+        <v>0</v>
+      </c>
+      <c r="V3" s="14">
+        <v>0</v>
+      </c>
+      <c r="W3" s="14">
+        <v>1</v>
+      </c>
+      <c r="X3" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="12">
         <v>1.2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <v>100</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
         <v>0.13100000000000001</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="13">
         <v>0.10400000000000001</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="13">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="13">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="13">
         <v>6.2E-2</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="13">
         <v>5.3600000000000009E-2</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="13">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="13">
         <v>2.8999999999999998E-2</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="13">
         <v>1.66E-2</v>
       </c>
-      <c r="S4" s="6">
-        <v>0</v>
-      </c>
-      <c r="T4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="S4" s="13">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13">
+        <v>1</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="14">
+        <v>0</v>
+      </c>
+      <c r="W4" s="14">
+        <v>1</v>
+      </c>
+      <c r="X4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="12">
         <v>1.2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="12">
         <v>100</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="H5" s="12">
+        <v>0</v>
+      </c>
+      <c r="I5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="13">
         <v>5.2000000000000005E-2</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="13">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="13">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="13">
         <v>3.1E-2</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="13">
         <v>2.6800000000000004E-2</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="13">
         <v>2.07E-2</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="13">
         <v>1.4499999999999999E-2</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="13">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="S5" s="6">
-        <v>0</v>
-      </c>
-      <c r="T5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="S5" s="13">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13">
+        <v>1</v>
+      </c>
+      <c r="U5" s="14">
+        <v>0</v>
+      </c>
+      <c r="V5" s="14">
+        <v>0</v>
+      </c>
+      <c r="W5" s="14">
+        <v>1</v>
+      </c>
+      <c r="X5" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="12">
         <v>1.2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="12">
         <v>100</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
         <v>0.13600000000000001</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="13">
         <v>0.18792</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="13">
         <v>0.22384000000000001</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="13">
         <v>0.24775999999999995</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="13">
         <v>0.2656</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="13">
         <v>0.27999999999999997</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="13">
         <v>0.30000000000000004</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="13">
         <v>0.32000000000000006</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6" s="13">
         <v>0.34</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="13">
         <v>0.36400000000000005</v>
       </c>
-      <c r="T6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="T6" s="13">
+        <v>1</v>
+      </c>
+      <c r="U6" s="14">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14">
+        <v>1</v>
+      </c>
+      <c r="X6" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="12">
         <v>1.2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="12">
         <v>100</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
         <v>0.10200000000000001</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="13">
         <v>0.14093999999999998</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="13">
         <v>0.16788</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="13">
         <v>0.18581999999999999</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="13">
         <v>0.19920000000000002</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="13">
         <v>0.21</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="13">
         <v>0.22499999999999998</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="13">
         <v>0.24</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7" s="13">
         <v>0.255</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="13">
         <v>0.27300000000000002</v>
       </c>
-      <c r="T7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="T7" s="13">
+        <v>1</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
+        <v>0</v>
+      </c>
+      <c r="W7" s="14">
+        <v>1</v>
+      </c>
+      <c r="X7" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="12">
         <v>1.2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="12">
         <v>100</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="13">
         <v>9.3960000000000002E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="13">
         <v>0.11192000000000001</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="13">
         <v>0.12387999999999998</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="13">
         <v>0.1328</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="13">
         <v>0.13999999999999999</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="13">
         <v>0.15000000000000002</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="13">
         <v>0.16000000000000003</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8" s="13">
         <v>0.17</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="13">
         <v>0.18200000000000002</v>
       </c>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="T8" s="13">
+        <v>1</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="14">
+        <v>0</v>
+      </c>
+      <c r="W8" s="14">
+        <v>1</v>
+      </c>
+      <c r="X8" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="12">
         <v>1.2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="12">
         <v>100</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="13">
         <v>4.6980000000000001E-2</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="13">
         <v>5.5960000000000003E-2</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="13">
         <v>6.1939999999999988E-2</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="13">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="13">
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="13">
         <v>7.5000000000000011E-2</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="13">
         <v>8.0000000000000016E-2</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9" s="13">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="13">
         <v>9.1000000000000011E-2</v>
       </c>
-      <c r="T9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="T9" s="13">
+        <v>1</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0</v>
+      </c>
+      <c r="V9" s="14">
+        <v>0</v>
+      </c>
+      <c r="W9" s="14">
+        <v>1</v>
+      </c>
+      <c r="X9" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="12">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="12">
         <v>1.2</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="12">
         <v>100</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="12">
         <v>2</v>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="I10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
         <v>2E-3</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="13">
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="13">
         <v>1.2E-2</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="13">
         <v>1.6E-2</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="13">
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="13">
         <v>2.4E-2</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="13">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="13">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="14">
+        <v>0</v>
+      </c>
+      <c r="W10" s="14">
+        <v>1</v>
+      </c>
+      <c r="X10" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="12">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="12">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="12">
         <v>1.2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="12">
         <v>100</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="12">
         <v>2</v>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13">
         <v>1.5E-3</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="13">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="13">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="13">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="13">
         <v>1.2E-2</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11" s="13">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="13">
         <v>2.4E-2</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="13">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0</v>
+      </c>
+      <c r="W11" s="14">
+        <v>1</v>
+      </c>
+      <c r="X11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="12">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="12">
         <v>4</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="12">
         <v>1.2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="12">
         <v>100</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="12">
         <v>2</v>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="I12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="13">
         <v>1E-3</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="13">
         <v>2E-3</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="13">
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="13">
         <v>1.0000000000000002E-2</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="13">
         <v>1.2E-2</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="13">
         <v>1.6E-2</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="13">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0</v>
+      </c>
+      <c r="W12" s="14">
+        <v>1</v>
+      </c>
+      <c r="X12" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z12" s="14">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="AA12" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="12">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="12">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="12">
         <v>1.2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="12">
         <v>100</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="12">
         <v>2</v>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="I13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="13">
         <v>1E-3</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="13">
         <v>1.5E-3</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="13">
         <v>2E-3</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="13">
         <v>2.5000000000000005E-3</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="13">
         <v>5.000000000000001E-3</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13" s="13">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="13">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0</v>
+      </c>
+      <c r="W13" s="14">
+        <v>1</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="12">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="12">
         <v>4</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="12">
         <v>1.2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="12">
         <v>100</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="12">
         <v>3</v>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
+      <c r="I14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="13">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="13">
         <v>2.3999999999999998E-4</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="13">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="13">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="13">
         <v>1.2000000000000001E-3</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="13">
         <v>2E-3</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14" s="13">
         <v>2.8000000000000004E-3</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="13">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="U14" s="14">
+        <v>0</v>
+      </c>
+      <c r="V14" s="14">
+        <v>0</v>
+      </c>
+      <c r="W14" s="14">
+        <v>1</v>
+      </c>
+      <c r="X14" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="12">
         <v>3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="12">
         <v>4</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="12">
         <v>1.2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="12">
         <v>100</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="12">
         <v>4</v>
       </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="I15" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
         <v>6.0000000000000002E-5</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="13">
         <v>1.2E-4</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="13">
         <v>1.7999999999999998E-4</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="13">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="13">
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="13">
         <v>1.5E-3</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15" s="13">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="13">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="14">
+        <v>0</v>
+      </c>
+      <c r="W15" s="14">
+        <v>1</v>
+      </c>
+      <c r="X15" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="12">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="12">
         <v>4</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="12">
         <v>1.2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="12">
         <v>100</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="12">
         <v>5</v>
       </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
+      <c r="I16" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="13">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="13">
         <v>1.1999999999999999E-4</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="13">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="13">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="13">
         <v>6.0000000000000006E-4</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="13">
         <v>1E-3</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="13">
         <v>1.4000000000000002E-3</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="13">
         <v>2E-3</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="13">
         <v>1.35</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="14">
+        <v>0</v>
+      </c>
+      <c r="W16" s="14">
+        <v>1</v>
+      </c>
+      <c r="X16" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="12">
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="12">
         <v>4</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="12">
         <v>1.2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="12">
         <v>100</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="12">
         <v>6</v>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="I17" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="13">
         <v>4.0000000000000003E-5</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="13">
         <v>5.9999999999999995E-5</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17" s="13">
         <v>1E-4</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="13">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="13">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="13">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="13">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="13">
         <v>1E-3</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="13">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="U17" s="14">
+        <v>0</v>
+      </c>
+      <c r="V17" s="14">
+        <v>0</v>
+      </c>
+      <c r="W17" s="14">
+        <v>1</v>
+      </c>
+      <c r="X17" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="12">
         <v>4</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="12">
         <v>4</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="12">
         <v>1.2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="12">
         <v>100</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="12">
         <v>13</v>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18" s="6">
+      <c r="I18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12">
+        <v>0</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0</v>
+      </c>
+      <c r="O18" s="12">
+        <v>0</v>
+      </c>
+      <c r="P18" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>0</v>
+      </c>
+      <c r="R18" s="12">
+        <v>0</v>
+      </c>
+      <c r="S18" s="12">
+        <v>0</v>
+      </c>
+      <c r="T18" s="13">
         <v>1.45</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="U18" s="14">
+        <v>0</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0</v>
+      </c>
+      <c r="W18" s="14">
+        <v>1</v>
+      </c>
+      <c r="X18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="12">
         <v>4</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="12">
         <v>4</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="12">
         <v>1.2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="12">
         <v>100</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="12">
         <v>14</v>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
+      <c r="I19" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12">
+        <v>0</v>
+      </c>
+      <c r="N19" s="12">
+        <v>0</v>
+      </c>
+      <c r="O19" s="12">
+        <v>0</v>
+      </c>
+      <c r="P19" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>0</v>
+      </c>
+      <c r="R19" s="12">
+        <v>0</v>
+      </c>
+      <c r="S19" s="12">
+        <v>0</v>
+      </c>
+      <c r="T19" s="13">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="U19" s="14">
+        <v>0</v>
+      </c>
+      <c r="V19" s="14">
+        <v>0</v>
+      </c>
+      <c r="W19" s="14">
+        <v>1</v>
+      </c>
+      <c r="X19" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="12">
         <v>4</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="12">
         <v>4</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="12">
         <v>1.2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="12">
         <v>100</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="12">
         <v>15</v>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20" s="6">
+      <c r="I20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>0</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>0</v>
+      </c>
+      <c r="R20" s="12">
+        <v>0</v>
+      </c>
+      <c r="S20" s="12">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
         <v>1.55</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="U20" s="14">
+        <v>0</v>
+      </c>
+      <c r="V20" s="14">
+        <v>0</v>
+      </c>
+      <c r="W20" s="14">
+        <v>1</v>
+      </c>
+      <c r="X20" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="12">
         <v>4</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="12">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="12">
         <v>1.2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="12">
         <v>100</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="12">
         <v>16</v>
       </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21" s="6">
+      <c r="I21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>0</v>
+      </c>
+      <c r="R21" s="12">
+        <v>0</v>
+      </c>
+      <c r="S21" s="12">
+        <v>0</v>
+      </c>
+      <c r="T21" s="13">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21" s="14">
+        <v>0</v>
+      </c>
+      <c r="V21" s="14">
+        <v>0</v>
+      </c>
+      <c r="W21" s="14">
+        <v>1</v>
+      </c>
+      <c r="X21" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2539,7 +3073,7 @@
         <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -2592,16 +3126,37 @@
       <c r="T22" s="6">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22" s="7">
+        <v>46</v>
+      </c>
+      <c r="V22">
+        <v>2500</v>
+      </c>
+      <c r="W22" s="7">
+        <v>46</v>
+      </c>
+      <c r="X22">
+        <v>2500</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -2654,16 +3209,37 @@
       <c r="T23" s="6">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23" s="7">
+        <v>46</v>
+      </c>
+      <c r="V23">
+        <v>2500</v>
+      </c>
+      <c r="W23" s="7">
+        <v>46</v>
+      </c>
+      <c r="X23">
+        <v>2500</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="D24">
         <v>7</v>
@@ -2716,16 +3292,37 @@
       <c r="T24" s="6">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24" s="7">
+        <v>46</v>
+      </c>
+      <c r="V24">
+        <v>2500</v>
+      </c>
+      <c r="W24" s="7">
+        <v>46</v>
+      </c>
+      <c r="X24">
+        <v>2500</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
       <c r="D25">
         <v>8</v>
@@ -2778,16 +3375,37 @@
       <c r="T25" s="6">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25" s="7">
+        <v>46</v>
+      </c>
+      <c r="V25">
+        <v>2500</v>
+      </c>
+      <c r="W25" s="7">
+        <v>46</v>
+      </c>
+      <c r="X25">
+        <v>2500</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -2840,16 +3458,37 @@
       <c r="T26" s="6">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26" s="7">
+        <v>46</v>
+      </c>
+      <c r="V26">
+        <v>2500</v>
+      </c>
+      <c r="W26" s="7">
+        <v>46</v>
+      </c>
+      <c r="X26">
+        <v>2500</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z26" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -2902,16 +3541,37 @@
       <c r="T27" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27" s="7">
+        <v>46</v>
+      </c>
+      <c r="V27">
+        <v>2500</v>
+      </c>
+      <c r="W27" s="7">
+        <v>46</v>
+      </c>
+      <c r="X27">
+        <v>2500</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="D28">
         <v>11</v>
@@ -2964,16 +3624,37 @@
       <c r="T28" s="6">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28" s="7">
+        <v>46</v>
+      </c>
+      <c r="V28">
+        <v>2500</v>
+      </c>
+      <c r="W28" s="7">
+        <v>46</v>
+      </c>
+      <c r="X28">
+        <v>2500</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z28" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="D29">
         <v>12</v>
@@ -3026,16 +3707,37 @@
       <c r="T29" s="6">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29" s="7">
+        <v>46</v>
+      </c>
+      <c r="V29">
+        <v>2500</v>
+      </c>
+      <c r="W29" s="7">
+        <v>46</v>
+      </c>
+      <c r="X29">
+        <v>2500</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="D30">
         <v>13</v>
@@ -3088,16 +3790,37 @@
       <c r="T30" s="6">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30" s="7">
+        <v>46</v>
+      </c>
+      <c r="V30">
+        <v>2500</v>
+      </c>
+      <c r="W30" s="7">
+        <v>46</v>
+      </c>
+      <c r="X30">
+        <v>2500</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="D31">
         <v>14</v>
@@ -3150,16 +3873,37 @@
       <c r="T31" s="6">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31" s="7">
+        <v>46</v>
+      </c>
+      <c r="V31">
+        <v>2500</v>
+      </c>
+      <c r="W31" s="7">
+        <v>46</v>
+      </c>
+      <c r="X31">
+        <v>2500</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z31" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>15</v>
@@ -3212,16 +3956,37 @@
       <c r="T32" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32" s="7">
+        <v>46</v>
+      </c>
+      <c r="V32">
+        <v>4000</v>
+      </c>
+      <c r="W32" s="7">
+        <v>46</v>
+      </c>
+      <c r="X32">
+        <v>4000</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D33">
         <v>16</v>
@@ -3274,16 +4039,37 @@
       <c r="T33" s="6">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33" s="7">
+        <v>46</v>
+      </c>
+      <c r="V33">
+        <v>4000</v>
+      </c>
+      <c r="W33" s="7">
+        <v>46</v>
+      </c>
+      <c r="X33">
+        <v>4000</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z33" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D34">
         <v>16</v>
@@ -3336,16 +4122,37 @@
       <c r="T34" s="6">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34" s="7">
+        <v>46</v>
+      </c>
+      <c r="V34">
+        <v>4000</v>
+      </c>
+      <c r="W34" s="7">
+        <v>46</v>
+      </c>
+      <c r="X34">
+        <v>4000</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z34" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA34" s="14">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D35">
         <v>17</v>
@@ -3398,16 +4205,37 @@
       <c r="T35" s="6">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35" s="7">
+        <v>46</v>
+      </c>
+      <c r="V35">
+        <v>4000</v>
+      </c>
+      <c r="W35" s="7">
+        <v>46</v>
+      </c>
+      <c r="X35">
+        <v>4000</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z35" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D36">
         <v>16</v>
@@ -3460,16 +4288,37 @@
       <c r="T36" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U36" s="7">
+        <v>46</v>
+      </c>
+      <c r="V36">
+        <v>4000</v>
+      </c>
+      <c r="W36" s="7">
+        <v>46</v>
+      </c>
+      <c r="X36">
+        <v>4000</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z36" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA36" s="14">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D37">
         <v>16</v>
@@ -3522,16 +4371,37 @@
       <c r="T37" s="6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U37" s="7">
+        <v>46</v>
+      </c>
+      <c r="V37">
+        <v>4000</v>
+      </c>
+      <c r="W37" s="7">
+        <v>46</v>
+      </c>
+      <c r="X37">
+        <v>4000</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z37" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA37" s="14">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D38">
         <v>16</v>
@@ -3584,388 +4454,535 @@
       <c r="T38" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+      <c r="U38" s="7">
+        <v>46</v>
+      </c>
+      <c r="V38">
+        <v>4000</v>
+      </c>
+      <c r="W38" s="7">
+        <v>46</v>
+      </c>
+      <c r="X38">
+        <v>4000</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA38" s="14">
+        <v>5000000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="8">
+        <v>18</v>
+      </c>
+      <c r="E39" s="8">
+        <v>4</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G39" s="8">
+        <v>100</v>
+      </c>
+      <c r="H39" s="8">
+        <v>57</v>
+      </c>
+      <c r="I39" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8">
+        <v>0</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="8">
+        <v>0</v>
+      </c>
+      <c r="P39" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>0</v>
+      </c>
+      <c r="R39" s="8">
+        <v>0</v>
+      </c>
+      <c r="S39" s="8">
+        <v>0</v>
+      </c>
+      <c r="T39" s="9">
+        <v>0</v>
+      </c>
+      <c r="U39" s="10">
+        <v>0</v>
+      </c>
+      <c r="V39" s="10">
+        <v>0</v>
+      </c>
+      <c r="W39" s="10">
+        <v>0</v>
+      </c>
+      <c r="X39" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA39" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="8">
+        <v>18</v>
+      </c>
+      <c r="E40" s="8">
+        <v>4</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G40" s="8">
+        <v>100</v>
+      </c>
+      <c r="H40" s="8">
+        <v>57</v>
+      </c>
+      <c r="I40" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0</v>
+      </c>
+      <c r="K40" s="8">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>0</v>
+      </c>
+      <c r="R40" s="8">
+        <v>0</v>
+      </c>
+      <c r="S40" s="8">
+        <v>0</v>
+      </c>
+      <c r="T40" s="9">
+        <v>0</v>
+      </c>
+      <c r="U40" s="10">
+        <v>0</v>
+      </c>
+      <c r="V40" s="10">
+        <v>0</v>
+      </c>
+      <c r="W40" s="10">
+        <v>0</v>
+      </c>
+      <c r="X40" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA40" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="8">
+        <v>18</v>
+      </c>
+      <c r="E41" s="8">
+        <v>4</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G41" s="8">
+        <v>100</v>
+      </c>
+      <c r="H41" s="8">
+        <v>57</v>
+      </c>
+      <c r="I41" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0</v>
+      </c>
+      <c r="K41" s="8">
+        <v>0</v>
+      </c>
+      <c r="L41" s="8">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8">
+        <v>0</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="O41" s="8">
+        <v>0</v>
+      </c>
+      <c r="P41" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>0</v>
+      </c>
+      <c r="R41" s="8">
+        <v>0</v>
+      </c>
+      <c r="S41" s="8">
+        <v>0</v>
+      </c>
+      <c r="T41" s="9">
+        <v>0</v>
+      </c>
+      <c r="U41" s="10">
+        <v>0</v>
+      </c>
+      <c r="V41" s="10">
+        <v>0</v>
+      </c>
+      <c r="W41" s="10">
+        <v>0</v>
+      </c>
+      <c r="X41" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z41" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA41" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="8">
+        <v>18</v>
+      </c>
+      <c r="E42" s="8">
+        <v>4</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G42" s="8">
+        <v>100</v>
+      </c>
+      <c r="H42" s="8">
+        <v>57</v>
+      </c>
+      <c r="I42" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" s="8">
+        <v>0</v>
+      </c>
+      <c r="K42" s="8">
+        <v>0</v>
+      </c>
+      <c r="L42" s="8">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+      <c r="O42" s="8">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>0</v>
+      </c>
+      <c r="R42" s="8">
+        <v>0</v>
+      </c>
+      <c r="S42" s="8">
+        <v>0</v>
+      </c>
+      <c r="T42" s="9">
+        <v>0</v>
+      </c>
+      <c r="U42" s="10">
+        <v>0</v>
+      </c>
+      <c r="V42" s="10">
+        <v>0</v>
+      </c>
+      <c r="W42" s="10">
+        <v>0</v>
+      </c>
+      <c r="X42" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z42" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA42" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="8">
+        <v>18</v>
+      </c>
+      <c r="E43" s="8">
+        <v>4</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G43" s="8">
+        <v>100</v>
+      </c>
+      <c r="H43" s="8">
+        <v>57</v>
+      </c>
+      <c r="I43" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0</v>
+      </c>
+      <c r="K43" s="8">
+        <v>0</v>
+      </c>
+      <c r="L43" s="8">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8">
+        <v>0</v>
+      </c>
+      <c r="N43" s="8">
+        <v>0</v>
+      </c>
+      <c r="O43" s="8">
+        <v>0</v>
+      </c>
+      <c r="P43" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>0</v>
+      </c>
+      <c r="R43" s="8">
+        <v>0</v>
+      </c>
+      <c r="S43" s="8">
+        <v>0</v>
+      </c>
+      <c r="T43" s="9">
+        <v>0</v>
+      </c>
+      <c r="U43" s="10">
+        <v>0</v>
+      </c>
+      <c r="V43" s="10">
+        <v>0</v>
+      </c>
+      <c r="W43" s="10">
+        <v>0</v>
+      </c>
+      <c r="X43" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA43" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="1">
+      <c r="C44" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="8">
         <v>18</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E44" s="8">
         <v>4</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F44" s="8">
         <v>1.2</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G44" s="8">
         <v>100</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H44" s="8">
         <v>57</v>
       </c>
-      <c r="I39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0</v>
-      </c>
-      <c r="S39" s="1">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="1">
-        <v>18</v>
-      </c>
-      <c r="E40" s="1">
-        <v>4</v>
-      </c>
-      <c r="F40" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G40" s="1">
-        <v>100</v>
-      </c>
-      <c r="H40" s="1">
-        <v>57</v>
-      </c>
-      <c r="I40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0</v>
-      </c>
-      <c r="M40" s="1">
-        <v>0</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0</v>
-      </c>
-      <c r="O40" s="1">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>0</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0</v>
-      </c>
-      <c r="S40" s="1">
-        <v>0</v>
-      </c>
-      <c r="T40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="1">
-        <v>18</v>
-      </c>
-      <c r="E41" s="1">
-        <v>4</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G41" s="1">
-        <v>100</v>
-      </c>
-      <c r="H41" s="1">
-        <v>57</v>
-      </c>
-      <c r="I41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0</v>
-      </c>
-      <c r="M41" s="1">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0</v>
-      </c>
-      <c r="O41" s="1">
-        <v>0</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0</v>
-      </c>
-      <c r="S41" s="1">
-        <v>0</v>
-      </c>
-      <c r="T41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="1">
-        <v>18</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4</v>
-      </c>
-      <c r="F42" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G42" s="1">
-        <v>100</v>
-      </c>
-      <c r="H42" s="1">
-        <v>57</v>
-      </c>
-      <c r="I42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0</v>
-      </c>
-      <c r="M42" s="1">
-        <v>0</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0</v>
-      </c>
-      <c r="O42" s="1">
-        <v>0</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1">
-        <v>0</v>
-      </c>
-      <c r="S42" s="1">
-        <v>0</v>
-      </c>
-      <c r="T42" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="1">
-        <v>18</v>
-      </c>
-      <c r="E43" s="1">
-        <v>4</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G43" s="1">
-        <v>100</v>
-      </c>
-      <c r="H43" s="1">
-        <v>57</v>
-      </c>
-      <c r="I43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0</v>
-      </c>
-      <c r="M43" s="1">
-        <v>0</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>0</v>
-      </c>
-      <c r="R43" s="1">
-        <v>0</v>
-      </c>
-      <c r="S43" s="1">
-        <v>0</v>
-      </c>
-      <c r="T43" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="1">
-        <v>18</v>
-      </c>
-      <c r="E44" s="1">
-        <v>4</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G44" s="1">
-        <v>100</v>
-      </c>
-      <c r="H44" s="1">
-        <v>57</v>
-      </c>
-      <c r="I44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>0</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>0</v>
-      </c>
-      <c r="R44" s="1">
-        <v>0</v>
-      </c>
-      <c r="S44" s="1">
-        <v>0</v>
-      </c>
-      <c r="T44" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I44" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
+      <c r="K44" s="8">
+        <v>0</v>
+      </c>
+      <c r="L44" s="8">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8">
+        <v>0</v>
+      </c>
+      <c r="N44" s="8">
+        <v>0</v>
+      </c>
+      <c r="O44" s="8">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>0</v>
+      </c>
+      <c r="R44" s="8">
+        <v>0</v>
+      </c>
+      <c r="S44" s="8">
+        <v>0</v>
+      </c>
+      <c r="T44" s="9">
+        <v>0</v>
+      </c>
+      <c r="U44" s="10">
+        <v>0</v>
+      </c>
+      <c r="V44" s="10">
+        <v>0</v>
+      </c>
+      <c r="W44" s="10">
+        <v>0</v>
+      </c>
+      <c r="X44" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z44" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA44" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="D45">
         <v>19</v>
@@ -4018,16 +5035,37 @@
       <c r="T45" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U45" s="7">
+        <v>46</v>
+      </c>
+      <c r="V45">
+        <v>5000</v>
+      </c>
+      <c r="W45" s="7">
+        <v>46</v>
+      </c>
+      <c r="X45">
+        <v>5000</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z45" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA45" s="14">
+        <v>8000000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="D46">
         <v>19</v>
@@ -4080,326 +5118,452 @@
       <c r="T46" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="U46" s="7">
+        <v>46</v>
+      </c>
+      <c r="V46">
+        <v>5000</v>
+      </c>
+      <c r="W46" s="7">
+        <v>46</v>
+      </c>
+      <c r="X46">
+        <v>5000</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z46" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA46" s="14">
+        <v>8000000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="1">
+      <c r="B47" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="8">
         <v>20</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="8">
         <v>4</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="8">
         <v>1.2</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="8">
         <v>100</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="8">
         <v>57</v>
       </c>
-      <c r="I47" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="N47" s="1">
-        <v>0</v>
-      </c>
-      <c r="O47" s="1">
-        <v>0</v>
-      </c>
-      <c r="P47" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1">
-        <v>0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>0</v>
-      </c>
-      <c r="T47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="I47" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+      <c r="K47" s="8">
+        <v>0</v>
+      </c>
+      <c r="L47" s="8">
+        <v>0</v>
+      </c>
+      <c r="M47" s="8">
+        <v>0</v>
+      </c>
+      <c r="N47" s="8">
+        <v>0</v>
+      </c>
+      <c r="O47" s="8">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>0</v>
+      </c>
+      <c r="R47" s="8">
+        <v>0</v>
+      </c>
+      <c r="S47" s="8">
+        <v>0</v>
+      </c>
+      <c r="T47" s="9">
+        <v>0</v>
+      </c>
+      <c r="U47" s="10">
+        <v>0</v>
+      </c>
+      <c r="V47" s="10">
+        <v>0</v>
+      </c>
+      <c r="W47" s="10">
+        <v>0</v>
+      </c>
+      <c r="X47" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z47" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA47" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="B48" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="8">
         <v>20</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="8">
         <v>4</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="8">
         <v>1.2</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="8">
         <v>100</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="8">
         <v>57</v>
       </c>
-      <c r="I48" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0</v>
-      </c>
-      <c r="M48" s="1">
-        <v>0</v>
-      </c>
-      <c r="N48" s="1">
-        <v>0</v>
-      </c>
-      <c r="O48" s="1">
-        <v>0</v>
-      </c>
-      <c r="P48" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="1">
-        <v>0</v>
-      </c>
-      <c r="R48" s="1">
-        <v>0</v>
-      </c>
-      <c r="S48" s="1">
-        <v>0</v>
-      </c>
-      <c r="T48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="I48" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0</v>
+      </c>
+      <c r="L48" s="8">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8">
+        <v>0</v>
+      </c>
+      <c r="N48" s="8">
+        <v>0</v>
+      </c>
+      <c r="O48" s="8">
+        <v>0</v>
+      </c>
+      <c r="P48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>0</v>
+      </c>
+      <c r="R48" s="8">
+        <v>0</v>
+      </c>
+      <c r="S48" s="8">
+        <v>0</v>
+      </c>
+      <c r="T48" s="9">
+        <v>0</v>
+      </c>
+      <c r="U48" s="10">
+        <v>0</v>
+      </c>
+      <c r="V48" s="10">
+        <v>0</v>
+      </c>
+      <c r="W48" s="10">
+        <v>0</v>
+      </c>
+      <c r="X48" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z48" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA48" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D49" s="1">
+      <c r="B49" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="8">
         <v>20</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="8">
         <v>4</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="8">
         <v>1.2</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="8">
         <v>100</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="8">
         <v>57</v>
       </c>
-      <c r="I49" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
-        <v>0</v>
-      </c>
-      <c r="N49" s="1">
-        <v>0</v>
-      </c>
-      <c r="O49" s="1">
-        <v>0</v>
-      </c>
-      <c r="P49" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="1">
-        <v>0</v>
-      </c>
-      <c r="R49" s="1">
-        <v>0</v>
-      </c>
-      <c r="S49" s="1">
-        <v>0</v>
-      </c>
-      <c r="T49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="I49" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
+      <c r="K49" s="8">
+        <v>0</v>
+      </c>
+      <c r="L49" s="8">
+        <v>0</v>
+      </c>
+      <c r="M49" s="8">
+        <v>0</v>
+      </c>
+      <c r="N49" s="8">
+        <v>0</v>
+      </c>
+      <c r="O49" s="8">
+        <v>0</v>
+      </c>
+      <c r="P49" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="8">
+        <v>0</v>
+      </c>
+      <c r="S49" s="8">
+        <v>0</v>
+      </c>
+      <c r="T49" s="9">
+        <v>0</v>
+      </c>
+      <c r="U49" s="10">
+        <v>0</v>
+      </c>
+      <c r="V49" s="10">
+        <v>0</v>
+      </c>
+      <c r="W49" s="10">
+        <v>0</v>
+      </c>
+      <c r="X49" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z49" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA49" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="1">
+      <c r="B50" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D50" s="8">
         <v>20</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="8">
         <v>4</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="8">
         <v>1.2</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="8">
         <v>100</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="8">
         <v>57</v>
       </c>
-      <c r="I50" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0</v>
-      </c>
-      <c r="M50" s="1">
-        <v>0</v>
-      </c>
-      <c r="N50" s="1">
-        <v>0</v>
-      </c>
-      <c r="O50" s="1">
-        <v>0</v>
-      </c>
-      <c r="P50" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>0</v>
-      </c>
-      <c r="R50" s="1">
-        <v>0</v>
-      </c>
-      <c r="S50" s="1">
-        <v>0</v>
-      </c>
-      <c r="T50" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="I50" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
+      <c r="K50" s="8">
+        <v>0</v>
+      </c>
+      <c r="L50" s="8">
+        <v>0</v>
+      </c>
+      <c r="M50" s="8">
+        <v>0</v>
+      </c>
+      <c r="N50" s="8">
+        <v>0</v>
+      </c>
+      <c r="O50" s="8">
+        <v>0</v>
+      </c>
+      <c r="P50" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>0</v>
+      </c>
+      <c r="R50" s="8">
+        <v>0</v>
+      </c>
+      <c r="S50" s="8">
+        <v>0</v>
+      </c>
+      <c r="T50" s="9">
+        <v>0</v>
+      </c>
+      <c r="U50" s="10">
+        <v>0</v>
+      </c>
+      <c r="V50" s="10">
+        <v>0</v>
+      </c>
+      <c r="W50" s="10">
+        <v>0</v>
+      </c>
+      <c r="X50" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z50" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D51" s="1">
+      <c r="B51" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="8">
         <v>20</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="8">
         <v>4</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="8">
         <v>1.2</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="8">
         <v>100</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="8">
         <v>57</v>
       </c>
-      <c r="I51" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="N51" s="1">
-        <v>0</v>
-      </c>
-      <c r="O51" s="1">
-        <v>0</v>
-      </c>
-      <c r="P51" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1">
-        <v>0</v>
-      </c>
-      <c r="S51" s="1">
-        <v>0</v>
-      </c>
-      <c r="T51" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I51" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" s="8">
+        <v>0</v>
+      </c>
+      <c r="K51" s="8">
+        <v>0</v>
+      </c>
+      <c r="L51" s="8">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8">
+        <v>0</v>
+      </c>
+      <c r="N51" s="8">
+        <v>0</v>
+      </c>
+      <c r="O51" s="8">
+        <v>0</v>
+      </c>
+      <c r="P51" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>0</v>
+      </c>
+      <c r="R51" s="8">
+        <v>0</v>
+      </c>
+      <c r="S51" s="8">
+        <v>0</v>
+      </c>
+      <c r="T51" s="9">
+        <v>0</v>
+      </c>
+      <c r="U51" s="10">
+        <v>0</v>
+      </c>
+      <c r="V51" s="10">
+        <v>0</v>
+      </c>
+      <c r="W51" s="10">
+        <v>0</v>
+      </c>
+      <c r="X51" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z51" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>206</v>
       </c>
       <c r="D52">
         <v>19</v>
@@ -4452,16 +5616,37 @@
       <c r="T52" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U52" s="7">
+        <v>46</v>
+      </c>
+      <c r="V52">
+        <v>5000</v>
+      </c>
+      <c r="W52" s="7">
+        <v>46</v>
+      </c>
+      <c r="X52">
+        <v>5000</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z52" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA52" s="14">
+        <v>8000000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="D53">
         <v>19</v>
@@ -4514,326 +5699,452 @@
       <c r="T53" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="U53" s="7">
+        <v>46</v>
+      </c>
+      <c r="V53">
+        <v>5000</v>
+      </c>
+      <c r="W53" s="7">
+        <v>46</v>
+      </c>
+      <c r="X53">
+        <v>5000</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>8000000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="1">
+      <c r="B54" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="8">
         <v>20</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="8">
         <v>4</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="8">
         <v>1.2</v>
       </c>
-      <c r="G54" s="1">
+      <c r="G54" s="8">
         <v>100</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="8">
         <v>57</v>
       </c>
-      <c r="I54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0</v>
-      </c>
-      <c r="M54" s="1">
-        <v>0</v>
-      </c>
-      <c r="N54" s="1">
-        <v>0</v>
-      </c>
-      <c r="O54" s="1">
-        <v>0</v>
-      </c>
-      <c r="P54" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>0</v>
-      </c>
-      <c r="R54" s="1">
-        <v>0</v>
-      </c>
-      <c r="S54" s="1">
-        <v>0</v>
-      </c>
-      <c r="T54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="I54" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" s="8">
+        <v>0</v>
+      </c>
+      <c r="K54" s="8">
+        <v>0</v>
+      </c>
+      <c r="L54" s="8">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8">
+        <v>0</v>
+      </c>
+      <c r="N54" s="8">
+        <v>0</v>
+      </c>
+      <c r="O54" s="8">
+        <v>0</v>
+      </c>
+      <c r="P54" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="8">
+        <v>0</v>
+      </c>
+      <c r="S54" s="8">
+        <v>0</v>
+      </c>
+      <c r="T54" s="9">
+        <v>0</v>
+      </c>
+      <c r="U54" s="10">
+        <v>0</v>
+      </c>
+      <c r="V54" s="10">
+        <v>0</v>
+      </c>
+      <c r="W54" s="10">
+        <v>0</v>
+      </c>
+      <c r="X54" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z54" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA54" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>145</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" s="1">
+      <c r="B55" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55" s="8">
         <v>20</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="8">
         <v>4</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="8">
         <v>1.2</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="8">
         <v>100</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="8">
         <v>57</v>
       </c>
-      <c r="I55" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0</v>
-      </c>
-      <c r="M55" s="1">
-        <v>0</v>
-      </c>
-      <c r="N55" s="1">
-        <v>0</v>
-      </c>
-      <c r="O55" s="1">
-        <v>0</v>
-      </c>
-      <c r="P55" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="1">
-        <v>0</v>
-      </c>
-      <c r="R55" s="1">
-        <v>0</v>
-      </c>
-      <c r="S55" s="1">
-        <v>0</v>
-      </c>
-      <c r="T55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="I55" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="8">
+        <v>0</v>
+      </c>
+      <c r="K55" s="8">
+        <v>0</v>
+      </c>
+      <c r="L55" s="8">
+        <v>0</v>
+      </c>
+      <c r="M55" s="8">
+        <v>0</v>
+      </c>
+      <c r="N55" s="8">
+        <v>0</v>
+      </c>
+      <c r="O55" s="8">
+        <v>0</v>
+      </c>
+      <c r="P55" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>0</v>
+      </c>
+      <c r="R55" s="8">
+        <v>0</v>
+      </c>
+      <c r="S55" s="8">
+        <v>0</v>
+      </c>
+      <c r="T55" s="9">
+        <v>0</v>
+      </c>
+      <c r="U55" s="10">
+        <v>0</v>
+      </c>
+      <c r="V55" s="10">
+        <v>0</v>
+      </c>
+      <c r="W55" s="10">
+        <v>0</v>
+      </c>
+      <c r="X55" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z55" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="B56" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="8">
         <v>20</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="8">
         <v>4</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="8">
         <v>1.2</v>
       </c>
-      <c r="G56" s="1">
+      <c r="G56" s="8">
         <v>100</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="8">
         <v>57</v>
       </c>
-      <c r="I56" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
-        <v>0</v>
-      </c>
-      <c r="M56" s="1">
-        <v>0</v>
-      </c>
-      <c r="N56" s="1">
-        <v>0</v>
-      </c>
-      <c r="O56" s="1">
-        <v>0</v>
-      </c>
-      <c r="P56" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="1">
-        <v>0</v>
-      </c>
-      <c r="R56" s="1">
-        <v>0</v>
-      </c>
-      <c r="S56" s="1">
-        <v>0</v>
-      </c>
-      <c r="T56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="I56" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" s="8">
+        <v>0</v>
+      </c>
+      <c r="K56" s="8">
+        <v>0</v>
+      </c>
+      <c r="L56" s="8">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8">
+        <v>0</v>
+      </c>
+      <c r="N56" s="8">
+        <v>0</v>
+      </c>
+      <c r="O56" s="8">
+        <v>0</v>
+      </c>
+      <c r="P56" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="8">
+        <v>0</v>
+      </c>
+      <c r="S56" s="8">
+        <v>0</v>
+      </c>
+      <c r="T56" s="9">
+        <v>0</v>
+      </c>
+      <c r="U56" s="10">
+        <v>0</v>
+      </c>
+      <c r="V56" s="10">
+        <v>0</v>
+      </c>
+      <c r="W56" s="10">
+        <v>0</v>
+      </c>
+      <c r="X56" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>147</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="B57" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="8">
         <v>20</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="8">
         <v>4</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57" s="8">
         <v>1.2</v>
       </c>
-      <c r="G57" s="1">
+      <c r="G57" s="8">
         <v>100</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="8">
         <v>57</v>
       </c>
-      <c r="I57" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1">
-        <v>0</v>
-      </c>
-      <c r="K57" s="1">
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
-        <v>0</v>
-      </c>
-      <c r="M57" s="1">
-        <v>0</v>
-      </c>
-      <c r="N57" s="1">
-        <v>0</v>
-      </c>
-      <c r="O57" s="1">
-        <v>0</v>
-      </c>
-      <c r="P57" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>0</v>
-      </c>
-      <c r="R57" s="1">
-        <v>0</v>
-      </c>
-      <c r="S57" s="1">
-        <v>0</v>
-      </c>
-      <c r="T57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="I57" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" s="8">
+        <v>0</v>
+      </c>
+      <c r="K57" s="8">
+        <v>0</v>
+      </c>
+      <c r="L57" s="8">
+        <v>0</v>
+      </c>
+      <c r="M57" s="8">
+        <v>0</v>
+      </c>
+      <c r="N57" s="8">
+        <v>0</v>
+      </c>
+      <c r="O57" s="8">
+        <v>0</v>
+      </c>
+      <c r="P57" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57" s="8">
+        <v>0</v>
+      </c>
+      <c r="S57" s="8">
+        <v>0</v>
+      </c>
+      <c r="T57" s="9">
+        <v>0</v>
+      </c>
+      <c r="U57" s="10">
+        <v>0</v>
+      </c>
+      <c r="V57" s="10">
+        <v>0</v>
+      </c>
+      <c r="W57" s="10">
+        <v>0</v>
+      </c>
+      <c r="X57" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z57" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="B58" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" s="8">
         <v>20</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="8">
         <v>4</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="8">
         <v>1.2</v>
       </c>
-      <c r="G58" s="1">
+      <c r="G58" s="8">
         <v>100</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="8">
         <v>57</v>
       </c>
-      <c r="I58" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" s="1">
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
-        <v>0</v>
-      </c>
-      <c r="L58" s="1">
-        <v>0</v>
-      </c>
-      <c r="M58" s="1">
-        <v>0</v>
-      </c>
-      <c r="N58" s="1">
-        <v>0</v>
-      </c>
-      <c r="O58" s="1">
-        <v>0</v>
-      </c>
-      <c r="P58" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="1">
-        <v>0</v>
-      </c>
-      <c r="R58" s="1">
-        <v>0</v>
-      </c>
-      <c r="S58" s="1">
-        <v>0</v>
-      </c>
-      <c r="T58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I58" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" s="8">
+        <v>0</v>
+      </c>
+      <c r="K58" s="8">
+        <v>0</v>
+      </c>
+      <c r="L58" s="8">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8">
+        <v>0</v>
+      </c>
+      <c r="N58" s="8">
+        <v>0</v>
+      </c>
+      <c r="O58" s="8">
+        <v>0</v>
+      </c>
+      <c r="P58" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="8">
+        <v>0</v>
+      </c>
+      <c r="S58" s="8">
+        <v>0</v>
+      </c>
+      <c r="T58" s="9">
+        <v>0</v>
+      </c>
+      <c r="U58" s="10">
+        <v>0</v>
+      </c>
+      <c r="V58" s="10">
+        <v>0</v>
+      </c>
+      <c r="W58" s="10">
+        <v>0</v>
+      </c>
+      <c r="X58" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z58" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA58" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C59" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="D59">
         <v>22</v>
@@ -4886,16 +6197,37 @@
       <c r="T59" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U59" s="7">
+        <v>46</v>
+      </c>
+      <c r="V59">
+        <v>10000</v>
+      </c>
+      <c r="W59" s="7">
+        <v>46</v>
+      </c>
+      <c r="X59">
+        <v>10000</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z59" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA59" s="14">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="D60">
         <v>22</v>
@@ -4948,16 +6280,37 @@
       <c r="T60" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U60" s="7">
+        <v>46</v>
+      </c>
+      <c r="V60">
+        <v>10000</v>
+      </c>
+      <c r="W60" s="7">
+        <v>46</v>
+      </c>
+      <c r="X60">
+        <v>10000</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z60" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA60" s="14">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C61" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="D61">
         <v>22</v>
@@ -5010,202 +6363,286 @@
       <c r="T61" s="6">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="U61" s="7">
+        <v>46</v>
+      </c>
+      <c r="V61">
+        <v>10000</v>
+      </c>
+      <c r="W61" s="7">
+        <v>46</v>
+      </c>
+      <c r="X61">
+        <v>10000</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z61" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA61" s="14">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" s="1">
+      <c r="B62" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="8">
         <v>20</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="8">
         <v>4</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="8">
         <v>1.2</v>
       </c>
-      <c r="G62" s="1">
+      <c r="G62" s="8">
         <v>100</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="8">
         <v>57</v>
       </c>
-      <c r="I62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J62" s="1">
-        <v>0</v>
-      </c>
-      <c r="K62" s="1">
-        <v>0</v>
-      </c>
-      <c r="L62" s="1">
-        <v>0</v>
-      </c>
-      <c r="M62" s="1">
-        <v>0</v>
-      </c>
-      <c r="N62" s="1">
-        <v>0</v>
-      </c>
-      <c r="O62" s="1">
-        <v>0</v>
-      </c>
-      <c r="P62" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>0</v>
-      </c>
-      <c r="R62" s="1">
-        <v>0</v>
-      </c>
-      <c r="S62" s="1">
-        <v>0</v>
-      </c>
-      <c r="T62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="I62" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0</v>
+      </c>
+      <c r="K62" s="8">
+        <v>0</v>
+      </c>
+      <c r="L62" s="8">
+        <v>0</v>
+      </c>
+      <c r="M62" s="8">
+        <v>0</v>
+      </c>
+      <c r="N62" s="8">
+        <v>0</v>
+      </c>
+      <c r="O62" s="8">
+        <v>0</v>
+      </c>
+      <c r="P62" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>0</v>
+      </c>
+      <c r="R62" s="8">
+        <v>0</v>
+      </c>
+      <c r="S62" s="8">
+        <v>0</v>
+      </c>
+      <c r="T62" s="9">
+        <v>0</v>
+      </c>
+      <c r="U62" s="10">
+        <v>0</v>
+      </c>
+      <c r="V62" s="10">
+        <v>0</v>
+      </c>
+      <c r="W62" s="10">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z62" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA62" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="B63" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="8">
         <v>20</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="8">
         <v>4</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="8">
         <v>1.2</v>
       </c>
-      <c r="G63" s="1">
+      <c r="G63" s="8">
         <v>100</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="8">
         <v>57</v>
       </c>
-      <c r="I63" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J63" s="1">
-        <v>0</v>
-      </c>
-      <c r="K63" s="1">
-        <v>0</v>
-      </c>
-      <c r="L63" s="1">
-        <v>0</v>
-      </c>
-      <c r="M63" s="1">
-        <v>0</v>
-      </c>
-      <c r="N63" s="1">
-        <v>0</v>
-      </c>
-      <c r="O63" s="1">
-        <v>0</v>
-      </c>
-      <c r="P63" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>0</v>
-      </c>
-      <c r="R63" s="1">
-        <v>0</v>
-      </c>
-      <c r="S63" s="1">
-        <v>0</v>
-      </c>
-      <c r="T63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="I63" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" s="8">
+        <v>0</v>
+      </c>
+      <c r="K63" s="8">
+        <v>0</v>
+      </c>
+      <c r="L63" s="8">
+        <v>0</v>
+      </c>
+      <c r="M63" s="8">
+        <v>0</v>
+      </c>
+      <c r="N63" s="8">
+        <v>0</v>
+      </c>
+      <c r="O63" s="8">
+        <v>0</v>
+      </c>
+      <c r="P63" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>0</v>
+      </c>
+      <c r="R63" s="8">
+        <v>0</v>
+      </c>
+      <c r="S63" s="8">
+        <v>0</v>
+      </c>
+      <c r="T63" s="9">
+        <v>0</v>
+      </c>
+      <c r="U63" s="10">
+        <v>0</v>
+      </c>
+      <c r="V63" s="10">
+        <v>0</v>
+      </c>
+      <c r="W63" s="10">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z63" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA63" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="B64" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="8">
         <v>20</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="8">
         <v>4</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="8">
         <v>1.2</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G64" s="8">
         <v>100</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="8">
         <v>57</v>
       </c>
-      <c r="I64" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1">
-        <v>0</v>
-      </c>
-      <c r="K64" s="1">
-        <v>0</v>
-      </c>
-      <c r="L64" s="1">
-        <v>0</v>
-      </c>
-      <c r="M64" s="1">
-        <v>0</v>
-      </c>
-      <c r="N64" s="1">
-        <v>0</v>
-      </c>
-      <c r="O64" s="1">
-        <v>0</v>
-      </c>
-      <c r="P64" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>0</v>
-      </c>
-      <c r="R64" s="1">
-        <v>0</v>
-      </c>
-      <c r="S64" s="1">
-        <v>0</v>
-      </c>
-      <c r="T64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I64" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0</v>
+      </c>
+      <c r="K64" s="8">
+        <v>0</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0</v>
+      </c>
+      <c r="M64" s="8">
+        <v>0</v>
+      </c>
+      <c r="N64" s="8">
+        <v>0</v>
+      </c>
+      <c r="O64" s="8">
+        <v>0</v>
+      </c>
+      <c r="P64" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>0</v>
+      </c>
+      <c r="R64" s="8">
+        <v>0</v>
+      </c>
+      <c r="S64" s="8">
+        <v>0</v>
+      </c>
+      <c r="T64" s="9">
+        <v>0</v>
+      </c>
+      <c r="U64" s="10">
+        <v>0</v>
+      </c>
+      <c r="V64" s="10">
+        <v>0</v>
+      </c>
+      <c r="W64" s="10">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z64" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA64" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>211</v>
       </c>
       <c r="D65">
         <v>22</v>
@@ -5258,16 +6695,37 @@
       <c r="T65" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U65" s="7">
+        <v>46</v>
+      </c>
+      <c r="V65">
+        <v>10000</v>
+      </c>
+      <c r="W65" s="7">
+        <v>46</v>
+      </c>
+      <c r="X65">
+        <v>10000</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z65" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA65" s="14">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C66" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
       <c r="D66">
         <v>22</v>
@@ -5320,16 +6778,37 @@
       <c r="T66" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U66" s="7">
+        <v>46</v>
+      </c>
+      <c r="V66">
+        <v>10000</v>
+      </c>
+      <c r="W66" s="7">
+        <v>46</v>
+      </c>
+      <c r="X66">
+        <v>10000</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z66" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA66" s="14">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="D67">
         <v>22</v>
@@ -5382,16 +6861,37 @@
       <c r="T67" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U67" s="7">
+        <v>46</v>
+      </c>
+      <c r="V67">
+        <v>10000</v>
+      </c>
+      <c r="W67" s="7">
+        <v>46</v>
+      </c>
+      <c r="X67">
+        <v>10000</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z67" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA67" s="14">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="D68">
         <v>22</v>
@@ -5444,16 +6944,37 @@
       <c r="T68" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U68" s="7">
+        <v>46</v>
+      </c>
+      <c r="V68">
+        <v>10000</v>
+      </c>
+      <c r="W68" s="7">
+        <v>46</v>
+      </c>
+      <c r="X68">
+        <v>10000</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z68" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA68" s="14">
+        <v>10000000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D69">
         <v>23</v>
@@ -5506,16 +7027,37 @@
       <c r="T69" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U69" s="7">
+        <v>46</v>
+      </c>
+      <c r="V69" s="7">
+        <v>15000</v>
+      </c>
+      <c r="W69" s="7">
+        <v>46</v>
+      </c>
+      <c r="X69" s="7">
+        <v>15000</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z69" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA69" s="14">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="D70">
         <v>23</v>
@@ -5568,16 +7110,37 @@
       <c r="T70" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U70" s="7">
+        <v>46</v>
+      </c>
+      <c r="V70" s="7">
+        <v>15000</v>
+      </c>
+      <c r="W70" s="7">
+        <v>46</v>
+      </c>
+      <c r="X70" s="7">
+        <v>15000</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z70" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA70" s="14">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D71">
         <v>23</v>
@@ -5630,16 +7193,37 @@
       <c r="T71" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U71" s="7">
+        <v>46</v>
+      </c>
+      <c r="V71" s="7">
+        <v>15000</v>
+      </c>
+      <c r="W71" s="7">
+        <v>46</v>
+      </c>
+      <c r="X71" s="7">
+        <v>15000</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z71" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA71" s="14">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D72">
         <v>23</v>
@@ -5692,388 +7276,535 @@
       <c r="T72" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="U72" s="7">
+        <v>46</v>
+      </c>
+      <c r="V72" s="7">
+        <v>15000</v>
+      </c>
+      <c r="W72" s="7">
+        <v>46</v>
+      </c>
+      <c r="X72" s="7">
+        <v>15000</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z72" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA72" s="14">
+        <v>30000000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="8">
+        <v>20</v>
+      </c>
+      <c r="E73" s="8">
+        <v>4</v>
+      </c>
+      <c r="F73" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G73" s="8">
+        <v>100</v>
+      </c>
+      <c r="H73" s="8">
+        <v>57</v>
+      </c>
+      <c r="I73" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J73" s="8">
+        <v>0</v>
+      </c>
+      <c r="K73" s="8">
+        <v>0</v>
+      </c>
+      <c r="L73" s="8">
+        <v>0</v>
+      </c>
+      <c r="M73" s="8">
+        <v>0</v>
+      </c>
+      <c r="N73" s="8">
+        <v>0</v>
+      </c>
+      <c r="O73" s="8">
+        <v>0</v>
+      </c>
+      <c r="P73" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>0</v>
+      </c>
+      <c r="R73" s="8">
+        <v>0</v>
+      </c>
+      <c r="S73" s="8">
+        <v>0</v>
+      </c>
+      <c r="T73" s="9">
+        <v>0</v>
+      </c>
+      <c r="U73" s="10">
+        <v>0</v>
+      </c>
+      <c r="V73" s="10">
+        <v>0</v>
+      </c>
+      <c r="W73" s="10">
+        <v>0</v>
+      </c>
+      <c r="X73" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z73" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA73" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="11">
+        <v>72</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D74" s="8">
+        <v>20</v>
+      </c>
+      <c r="E74" s="8">
+        <v>4</v>
+      </c>
+      <c r="F74" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G74" s="8">
+        <v>100</v>
+      </c>
+      <c r="H74" s="8">
+        <v>57</v>
+      </c>
+      <c r="I74" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J74" s="8">
+        <v>0</v>
+      </c>
+      <c r="K74" s="8">
+        <v>0</v>
+      </c>
+      <c r="L74" s="8">
+        <v>0</v>
+      </c>
+      <c r="M74" s="8">
+        <v>0</v>
+      </c>
+      <c r="N74" s="8">
+        <v>0</v>
+      </c>
+      <c r="O74" s="8">
+        <v>0</v>
+      </c>
+      <c r="P74" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>0</v>
+      </c>
+      <c r="R74" s="8">
+        <v>0</v>
+      </c>
+      <c r="S74" s="8">
+        <v>0</v>
+      </c>
+      <c r="T74" s="9">
+        <v>0</v>
+      </c>
+      <c r="U74" s="10">
+        <v>0</v>
+      </c>
+      <c r="V74" s="10">
+        <v>0</v>
+      </c>
+      <c r="W74" s="10">
+        <v>0</v>
+      </c>
+      <c r="X74" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z74" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA74" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11">
+        <v>73</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="8">
+        <v>20</v>
+      </c>
+      <c r="E75" s="8">
+        <v>4</v>
+      </c>
+      <c r="F75" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G75" s="8">
+        <v>100</v>
+      </c>
+      <c r="H75" s="8">
+        <v>57</v>
+      </c>
+      <c r="I75" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J75" s="8">
+        <v>0</v>
+      </c>
+      <c r="K75" s="8">
+        <v>0</v>
+      </c>
+      <c r="L75" s="8">
+        <v>0</v>
+      </c>
+      <c r="M75" s="8">
+        <v>0</v>
+      </c>
+      <c r="N75" s="8">
+        <v>0</v>
+      </c>
+      <c r="O75" s="8">
+        <v>0</v>
+      </c>
+      <c r="P75" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>0</v>
+      </c>
+      <c r="R75" s="8">
+        <v>0</v>
+      </c>
+      <c r="S75" s="8">
+        <v>0</v>
+      </c>
+      <c r="T75" s="9">
+        <v>0</v>
+      </c>
+      <c r="U75" s="10">
+        <v>0</v>
+      </c>
+      <c r="V75" s="10">
+        <v>0</v>
+      </c>
+      <c r="W75" s="10">
+        <v>0</v>
+      </c>
+      <c r="X75" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z75" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA75" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
+        <v>74</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" s="8">
+        <v>20</v>
+      </c>
+      <c r="E76" s="8">
+        <v>4</v>
+      </c>
+      <c r="F76" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G76" s="8">
+        <v>100</v>
+      </c>
+      <c r="H76" s="8">
+        <v>57</v>
+      </c>
+      <c r="I76" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J76" s="8">
+        <v>0</v>
+      </c>
+      <c r="K76" s="8">
+        <v>0</v>
+      </c>
+      <c r="L76" s="8">
+        <v>0</v>
+      </c>
+      <c r="M76" s="8">
+        <v>0</v>
+      </c>
+      <c r="N76" s="8">
+        <v>0</v>
+      </c>
+      <c r="O76" s="8">
+        <v>0</v>
+      </c>
+      <c r="P76" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>0</v>
+      </c>
+      <c r="R76" s="8">
+        <v>0</v>
+      </c>
+      <c r="S76" s="8">
+        <v>0</v>
+      </c>
+      <c r="T76" s="9">
+        <v>0</v>
+      </c>
+      <c r="U76" s="10">
+        <v>0</v>
+      </c>
+      <c r="V76" s="10">
+        <v>0</v>
+      </c>
+      <c r="W76" s="10">
+        <v>0</v>
+      </c>
+      <c r="X76" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z76" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA76" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
+        <v>75</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="8">
+        <v>20</v>
+      </c>
+      <c r="E77" s="8">
+        <v>4</v>
+      </c>
+      <c r="F77" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="G77" s="8">
+        <v>100</v>
+      </c>
+      <c r="H77" s="8">
+        <v>57</v>
+      </c>
+      <c r="I77" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" s="8">
+        <v>0</v>
+      </c>
+      <c r="K77" s="8">
+        <v>0</v>
+      </c>
+      <c r="L77" s="8">
+        <v>0</v>
+      </c>
+      <c r="M77" s="8">
+        <v>0</v>
+      </c>
+      <c r="N77" s="8">
+        <v>0</v>
+      </c>
+      <c r="O77" s="8">
+        <v>0</v>
+      </c>
+      <c r="P77" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>0</v>
+      </c>
+      <c r="R77" s="8">
+        <v>0</v>
+      </c>
+      <c r="S77" s="8">
+        <v>0</v>
+      </c>
+      <c r="T77" s="9">
+        <v>0</v>
+      </c>
+      <c r="U77" s="10">
+        <v>0</v>
+      </c>
+      <c r="V77" s="10">
+        <v>0</v>
+      </c>
+      <c r="W77" s="10">
+        <v>0</v>
+      </c>
+      <c r="X77" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z77" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA77" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
+        <v>76</v>
+      </c>
+      <c r="B78" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D73" s="1">
+      <c r="C78" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D78" s="8">
         <v>20</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E78" s="8">
         <v>4</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F78" s="8">
         <v>1.2</v>
       </c>
-      <c r="G73" s="1">
+      <c r="G78" s="8">
         <v>100</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H78" s="8">
         <v>57</v>
       </c>
-      <c r="I73" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J73" s="1">
-        <v>0</v>
-      </c>
-      <c r="K73" s="1">
-        <v>0</v>
-      </c>
-      <c r="L73" s="1">
-        <v>0</v>
-      </c>
-      <c r="M73" s="1">
-        <v>0</v>
-      </c>
-      <c r="N73" s="1">
-        <v>0</v>
-      </c>
-      <c r="O73" s="1">
-        <v>0</v>
-      </c>
-      <c r="P73" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>0</v>
-      </c>
-      <c r="R73" s="1">
-        <v>0</v>
-      </c>
-      <c r="S73" s="1">
-        <v>0</v>
-      </c>
-      <c r="T73" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>183</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="I78" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" s="8">
+        <v>0</v>
+      </c>
+      <c r="K78" s="8">
+        <v>0</v>
+      </c>
+      <c r="L78" s="8">
+        <v>0</v>
+      </c>
+      <c r="M78" s="8">
+        <v>0</v>
+      </c>
+      <c r="N78" s="8">
+        <v>0</v>
+      </c>
+      <c r="O78" s="8">
+        <v>0</v>
+      </c>
+      <c r="P78" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>0</v>
+      </c>
+      <c r="R78" s="8">
+        <v>0</v>
+      </c>
+      <c r="S78" s="8">
+        <v>0</v>
+      </c>
+      <c r="T78" s="9">
+        <v>0</v>
+      </c>
+      <c r="U78" s="10">
+        <v>0</v>
+      </c>
+      <c r="V78" s="10">
+        <v>0</v>
+      </c>
+      <c r="W78" s="10">
+        <v>0</v>
+      </c>
+      <c r="X78" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="D74" s="1">
-        <v>20</v>
-      </c>
-      <c r="E74" s="1">
-        <v>4</v>
-      </c>
-      <c r="F74" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G74" s="1">
-        <v>100</v>
-      </c>
-      <c r="H74" s="1">
-        <v>57</v>
-      </c>
-      <c r="I74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J74" s="1">
-        <v>0</v>
-      </c>
-      <c r="K74" s="1">
-        <v>0</v>
-      </c>
-      <c r="L74" s="1">
-        <v>0</v>
-      </c>
-      <c r="M74" s="1">
-        <v>0</v>
-      </c>
-      <c r="N74" s="1">
-        <v>0</v>
-      </c>
-      <c r="O74" s="1">
-        <v>0</v>
-      </c>
-      <c r="P74" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>0</v>
-      </c>
-      <c r="R74" s="1">
-        <v>0</v>
-      </c>
-      <c r="S74" s="1">
-        <v>0</v>
-      </c>
-      <c r="T74" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D75" s="1">
-        <v>20</v>
-      </c>
-      <c r="E75" s="1">
-        <v>4</v>
-      </c>
-      <c r="F75" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G75" s="1">
-        <v>100</v>
-      </c>
-      <c r="H75" s="1">
-        <v>57</v>
-      </c>
-      <c r="I75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J75" s="1">
-        <v>0</v>
-      </c>
-      <c r="K75" s="1">
-        <v>0</v>
-      </c>
-      <c r="L75" s="1">
-        <v>0</v>
-      </c>
-      <c r="M75" s="1">
-        <v>0</v>
-      </c>
-      <c r="N75" s="1">
-        <v>0</v>
-      </c>
-      <c r="O75" s="1">
-        <v>0</v>
-      </c>
-      <c r="P75" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="1">
-        <v>0</v>
-      </c>
-      <c r="R75" s="1">
-        <v>0</v>
-      </c>
-      <c r="S75" s="1">
-        <v>0</v>
-      </c>
-      <c r="T75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>185</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D76" s="1">
-        <v>20</v>
-      </c>
-      <c r="E76" s="1">
-        <v>4</v>
-      </c>
-      <c r="F76" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G76" s="1">
-        <v>100</v>
-      </c>
-      <c r="H76" s="1">
-        <v>57</v>
-      </c>
-      <c r="I76" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J76" s="1">
-        <v>0</v>
-      </c>
-      <c r="K76" s="1">
-        <v>0</v>
-      </c>
-      <c r="L76" s="1">
-        <v>0</v>
-      </c>
-      <c r="M76" s="1">
-        <v>0</v>
-      </c>
-      <c r="N76" s="1">
-        <v>0</v>
-      </c>
-      <c r="O76" s="1">
-        <v>0</v>
-      </c>
-      <c r="P76" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="1">
-        <v>0</v>
-      </c>
-      <c r="R76" s="1">
-        <v>0</v>
-      </c>
-      <c r="S76" s="1">
-        <v>0</v>
-      </c>
-      <c r="T76" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>186</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D77" s="1">
-        <v>20</v>
-      </c>
-      <c r="E77" s="1">
-        <v>4</v>
-      </c>
-      <c r="F77" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G77" s="1">
-        <v>100</v>
-      </c>
-      <c r="H77" s="1">
-        <v>57</v>
-      </c>
-      <c r="I77" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="1">
-        <v>0</v>
-      </c>
-      <c r="K77" s="1">
-        <v>0</v>
-      </c>
-      <c r="L77" s="1">
-        <v>0</v>
-      </c>
-      <c r="M77" s="1">
-        <v>0</v>
-      </c>
-      <c r="N77" s="1">
-        <v>0</v>
-      </c>
-      <c r="O77" s="1">
-        <v>0</v>
-      </c>
-      <c r="P77" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="1">
-        <v>0</v>
-      </c>
-      <c r="R77" s="1">
-        <v>0</v>
-      </c>
-      <c r="S77" s="1">
-        <v>0</v>
-      </c>
-      <c r="T77" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>207</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D78" s="1">
-        <v>20</v>
-      </c>
-      <c r="E78" s="1">
-        <v>4</v>
-      </c>
-      <c r="F78" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="G78" s="1">
-        <v>100</v>
-      </c>
-      <c r="H78" s="1">
-        <v>57</v>
-      </c>
-      <c r="I78" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="1">
-        <v>0</v>
-      </c>
-      <c r="K78" s="1">
-        <v>0</v>
-      </c>
-      <c r="L78" s="1">
-        <v>0</v>
-      </c>
-      <c r="M78" s="1">
-        <v>0</v>
-      </c>
-      <c r="N78" s="1">
-        <v>0</v>
-      </c>
-      <c r="O78" s="1">
-        <v>0</v>
-      </c>
-      <c r="P78" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="1">
-        <v>0</v>
-      </c>
-      <c r="R78" s="1">
-        <v>0</v>
-      </c>
-      <c r="S78" s="1">
-        <v>0</v>
-      </c>
-      <c r="T78" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="Z78" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA78" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C79" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="D79">
         <v>22</v>
@@ -6126,16 +7857,37 @@
       <c r="T79" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U79" s="7">
+        <v>46</v>
+      </c>
+      <c r="V79" s="7">
+        <v>20000</v>
+      </c>
+      <c r="W79" s="7">
+        <v>46</v>
+      </c>
+      <c r="X79" s="7">
+        <v>20000</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z79" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA79" s="14">
+        <v>50000000000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="D80">
         <v>22</v>
@@ -6188,16 +7940,37 @@
       <c r="T80" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U80" s="7">
+        <v>46</v>
+      </c>
+      <c r="V80" s="7">
+        <v>20000</v>
+      </c>
+      <c r="W80" s="7">
+        <v>46</v>
+      </c>
+      <c r="X80" s="7">
+        <v>20000</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z80" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA80" s="14">
+        <v>50000000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="D81">
         <v>22</v>
@@ -6250,16 +8023,37 @@
       <c r="T81" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U81" s="7">
+        <v>46</v>
+      </c>
+      <c r="V81" s="7">
+        <v>20000</v>
+      </c>
+      <c r="W81" s="7">
+        <v>46</v>
+      </c>
+      <c r="X81" s="7">
+        <v>20000</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z81" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA81" s="14">
+        <v>50000000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C82" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D82">
         <v>24</v>
@@ -6312,194 +8106,362 @@
       <c r="T82" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="U82" s="7">
+        <v>46</v>
+      </c>
+      <c r="V82" s="7">
+        <v>25000</v>
+      </c>
+      <c r="W82" s="7">
+        <v>46</v>
+      </c>
+      <c r="X82" s="7">
+        <v>25000</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z82" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA82" s="14">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>202</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D83" s="1">
+      <c r="B83" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="8">
         <v>18</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="8">
         <v>4</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="8">
         <v>1.2</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G83" s="8">
         <v>100</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="8">
         <v>96</v>
       </c>
-      <c r="I83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" s="1">
-        <v>0</v>
-      </c>
-      <c r="K83" s="1">
-        <v>0</v>
-      </c>
-      <c r="L83" s="1">
-        <v>0</v>
-      </c>
-      <c r="M83" s="1">
-        <v>0</v>
-      </c>
-      <c r="N83" s="1">
-        <v>0</v>
-      </c>
-      <c r="O83" s="1">
-        <v>0</v>
-      </c>
-      <c r="P83" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="1">
-        <v>0</v>
-      </c>
-      <c r="R83" s="1">
-        <v>0</v>
-      </c>
-      <c r="S83" s="1">
-        <v>0</v>
-      </c>
-      <c r="T83" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="I83" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" s="8">
+        <v>0</v>
+      </c>
+      <c r="K83" s="8">
+        <v>0</v>
+      </c>
+      <c r="L83" s="8">
+        <v>0</v>
+      </c>
+      <c r="M83" s="8">
+        <v>0</v>
+      </c>
+      <c r="N83" s="8">
+        <v>0</v>
+      </c>
+      <c r="O83" s="8">
+        <v>0</v>
+      </c>
+      <c r="P83" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>0</v>
+      </c>
+      <c r="R83" s="8">
+        <v>0</v>
+      </c>
+      <c r="S83" s="8">
+        <v>0</v>
+      </c>
+      <c r="T83" s="9">
+        <v>0</v>
+      </c>
+      <c r="U83" s="10">
+        <v>0</v>
+      </c>
+      <c r="V83" s="7">
+        <v>0</v>
+      </c>
+      <c r="W83" s="10">
+        <v>0</v>
+      </c>
+      <c r="X83" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z83" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA83" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>203</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D84" s="1">
+      <c r="B84" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="8">
         <v>20</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="8">
         <v>4</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="8">
         <v>1.2</v>
       </c>
-      <c r="G84" s="1">
+      <c r="G84" s="8">
         <v>100</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="8">
         <v>57</v>
       </c>
-      <c r="I84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" s="1">
-        <v>0</v>
-      </c>
-      <c r="K84" s="1">
-        <v>0</v>
-      </c>
-      <c r="L84" s="1">
-        <v>0</v>
-      </c>
-      <c r="M84" s="1">
-        <v>0</v>
-      </c>
-      <c r="N84" s="1">
-        <v>0</v>
-      </c>
-      <c r="O84" s="1">
-        <v>0</v>
-      </c>
-      <c r="P84" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="1">
-        <v>0</v>
-      </c>
-      <c r="R84" s="1">
-        <v>0</v>
-      </c>
-      <c r="S84" s="1">
-        <v>0</v>
-      </c>
-      <c r="T84" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="I84" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" s="8">
+        <v>0</v>
+      </c>
+      <c r="K84" s="8">
+        <v>0</v>
+      </c>
+      <c r="L84" s="8">
+        <v>0</v>
+      </c>
+      <c r="M84" s="8">
+        <v>0</v>
+      </c>
+      <c r="N84" s="8">
+        <v>0</v>
+      </c>
+      <c r="O84" s="8">
+        <v>0</v>
+      </c>
+      <c r="P84" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="8">
+        <v>0</v>
+      </c>
+      <c r="R84" s="8">
+        <v>0</v>
+      </c>
+      <c r="S84" s="8">
+        <v>0</v>
+      </c>
+      <c r="T84" s="9">
+        <v>0</v>
+      </c>
+      <c r="U84" s="10">
+        <v>0</v>
+      </c>
+      <c r="V84" s="10">
+        <v>0</v>
+      </c>
+      <c r="W84" s="10">
+        <v>0</v>
+      </c>
+      <c r="X84" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z84" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA84" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
-        <v>204</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D85" s="1">
+      <c r="B85" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" s="8">
         <v>20</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="8">
         <v>4</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="8">
         <v>1.2</v>
       </c>
-      <c r="G85" s="1">
+      <c r="G85" s="8">
         <v>100</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="8">
         <v>57</v>
       </c>
-      <c r="I85" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" s="1">
-        <v>0</v>
-      </c>
-      <c r="K85" s="1">
-        <v>0</v>
-      </c>
-      <c r="L85" s="1">
-        <v>0</v>
-      </c>
-      <c r="M85" s="1">
-        <v>0</v>
-      </c>
-      <c r="N85" s="1">
-        <v>0</v>
-      </c>
-      <c r="O85" s="1">
-        <v>0</v>
-      </c>
-      <c r="P85" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="1">
-        <v>0</v>
-      </c>
-      <c r="R85" s="1">
-        <v>0</v>
-      </c>
-      <c r="S85" s="1">
-        <v>0</v>
-      </c>
-      <c r="T85" s="7">
-        <v>0</v>
+      <c r="I85" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" s="8">
+        <v>0</v>
+      </c>
+      <c r="K85" s="8">
+        <v>0</v>
+      </c>
+      <c r="L85" s="8">
+        <v>0</v>
+      </c>
+      <c r="M85" s="8">
+        <v>0</v>
+      </c>
+      <c r="N85" s="8">
+        <v>0</v>
+      </c>
+      <c r="O85" s="8">
+        <v>0</v>
+      </c>
+      <c r="P85" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>0</v>
+      </c>
+      <c r="R85" s="8">
+        <v>0</v>
+      </c>
+      <c r="S85" s="8">
+        <v>0</v>
+      </c>
+      <c r="T85" s="9">
+        <v>0</v>
+      </c>
+      <c r="U85" s="10">
+        <v>0</v>
+      </c>
+      <c r="V85" s="10">
+        <v>0</v>
+      </c>
+      <c r="W85" s="10">
+        <v>0</v>
+      </c>
+      <c r="X85" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z85" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA85" s="14">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86">
+        <v>24</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>1.2</v>
+      </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+      <c r="H86">
+        <v>119</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+      <c r="T86" s="6">
+        <v>21</v>
+      </c>
+      <c r="U86" s="7">
+        <v>46</v>
+      </c>
+      <c r="V86" s="7">
+        <v>25000</v>
+      </c>
+      <c r="W86" s="7">
+        <v>46</v>
+      </c>
+      <c r="X86" s="7">
+        <v>25000</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z86" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA86" s="14">
+        <v>100000000000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AA86" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Assets/06.Table/Weapon.xlsx
+++ b/Assets/06.Table/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CCA3AC-1F03-41C1-BDFD-2E45023B875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC90516-45D6-4F59-8FDE-A024F937B6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="224">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -832,6 +832,20 @@
   </si>
   <si>
     <t>광목천왕검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weapon85</t>
+  </si>
+  <si>
+    <t>weapon86</t>
+  </si>
+  <si>
+    <t>증장천왕검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다문천왕검</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,12 +1304,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AA86"/>
+  <dimension ref="A1:AA88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="Z93" sqref="Z91:AA93"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8457,6 +8471,172 @@
         <v>11</v>
       </c>
       <c r="AA86" s="14">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" t="s">
+        <v>222</v>
+      </c>
+      <c r="D87">
+        <v>24</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>1.2</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+      <c r="H87">
+        <v>121</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>0</v>
+      </c>
+      <c r="T87" s="6">
+        <v>22</v>
+      </c>
+      <c r="U87" s="7">
+        <v>46</v>
+      </c>
+      <c r="V87" s="7">
+        <v>25000</v>
+      </c>
+      <c r="W87" s="7">
+        <v>46</v>
+      </c>
+      <c r="X87" s="7">
+        <v>25000</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z87" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA87" s="14">
+        <v>100000000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" t="s">
+        <v>223</v>
+      </c>
+      <c r="D88">
+        <v>24</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>1.2</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+      <c r="H88">
+        <v>122</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+      <c r="T88" s="6">
+        <v>23</v>
+      </c>
+      <c r="U88" s="7">
+        <v>46</v>
+      </c>
+      <c r="V88" s="7">
+        <v>25000</v>
+      </c>
+      <c r="W88" s="7">
+        <v>46</v>
+      </c>
+      <c r="X88" s="7">
+        <v>25000</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z88" s="14">
+        <v>11</v>
+      </c>
+      <c r="AA88" s="14">
         <v>100000000000</v>
       </c>
     </row>
